--- a/Documentation/HoferL-Journal&Planif-M5.xlsx
+++ b/Documentation/HoferL-Journal&Planif-M5.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -54,6 +54,9 @@
     <t xml:space="preserve">Recherche d'idée de projet.</t>
   </si>
   <si>
+    <t>Plannification</t>
+  </si>
+  <si>
     <t>27.01.2026</t>
   </si>
   <si>
@@ -63,16 +66,43 @@
     <t xml:space="preserve">Création du cahier des charge, validation avec responsable du module. Création de la documentation technique.</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche et configuration de solution Git.</t>
+    <t xml:space="preserve">Recherche et configuration de solution GitHub. Clés SSH.</t>
+  </si>
+  <si>
+    <t>Maquettage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d'une application pour faire une maquette</t>
+  </si>
+  <si>
+    <t>30.01.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche d'une application pour faire une maquette + Lecture de la documentation de l'outil Penpot</t>
   </si>
   <si>
     <t>Programmation</t>
   </si>
   <si>
+    <t xml:space="preserve">Commencement de la maquette de l'application</t>
+  </si>
+  <si>
     <t>Tests</t>
   </si>
   <si>
+    <t>03.02.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalisation de l'introduction du projet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de la licence du projet et ajout de l'interface dans le dépot GitHub</t>
+  </si>
+  <si>
     <t>Présentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commencement de la plannification du projet</t>
   </si>
   <si>
     <t>Somme</t>
@@ -1004,7 +1034,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1024,27 +1054,21 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5212,7 +5236,7 @@
     <col bestFit="1" customWidth="1" min="4" max="4" width="15.21875"/>
     <col customWidth="1" min="5" max="5" width="46.5546875"/>
     <col customWidth="1" min="6" max="6" width="2"/>
-    <col customWidth="1" min="7" max="7" width="18.33203125"/>
+    <col customWidth="1" min="7" max="7" width="17.28125"/>
     <col customWidth="1" min="8" max="8" width="12.44140625"/>
   </cols>
   <sheetData>
@@ -5249,14 +5273,14 @@
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4">
       <c r="B4" s="3" t="s">
@@ -5265,331 +5289,384 @@
       <c r="C4" s="4">
         <v>0.041666666666666664</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="42.75">
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="4">
         <v>0.125</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5">
+      <c r="B6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
-        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>0.041666666666666664</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="11"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="13" t="s">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8">
+        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
+        <v>5.9999999999999991</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5">
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7">
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="11"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="7">
+    <row r="10">
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.083333333333333329</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="12"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="7">
+    <row r="11" ht="28.5">
+      <c r="B11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="14">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="11"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="12"/>
-      <c r="H10" s="7">
-        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5">
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="16">
-        <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="12" ht="15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="7">
+        <v>27</v>
+      </c>
+      <c r="H12" s="8">
         <f>SUM(H3:H11)</f>
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="11"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="12"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" ht="28.5">
-      <c r="B14" s="11"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15">
-      <c r="B15" s="11"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16">
-      <c r="B16" s="11"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="12"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17">
-      <c r="B17" s="11"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="12"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="28.5">
-      <c r="B18" s="11"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19">
-      <c r="B19" s="11"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="12"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="28.5">
-      <c r="B20" s="11"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="12"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="28.5">
-      <c r="B21" s="11"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="28.5">
-      <c r="B22" s="11"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="12"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23">
-      <c r="B23" s="11"/>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="12"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24">
-      <c r="B24" s="11"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="12"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25">
-      <c r="B25" s="17"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="12"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26">
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="12"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27">
-      <c r="B27" s="17"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="12"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28">
-      <c r="B28" s="17"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29">
-      <c r="B29" s="17"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30">
-      <c r="B30" s="17"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="12"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31">
-      <c r="B31" s="17"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="12"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32">
-      <c r="B32" s="17"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="12"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33">
-      <c r="B33" s="17"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="12"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34">
-      <c r="B34" s="17"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="12"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35">
-      <c r="B35" s="17"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36">
-      <c r="B36" s="17"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
-      <c r="E36" s="12"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37">
-      <c r="B37" s="17"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38">
-      <c r="B38" s="17"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39">
-      <c r="B39" s="17"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="12"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40">
-      <c r="B40" s="17"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="12"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41">
-      <c r="B41" s="17"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="12"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42">
-      <c r="B42" s="17"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43">
-      <c r="B43" s="17"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="12"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44">
-      <c r="B44" s="17"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
-      <c r="E44" s="12"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45">
-      <c r="B45" s="17"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="12"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46">
       <c r="B46" s="5"/>
@@ -5801,7 +5878,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00EE005D-0076-4BFB-8D29-005100AF008D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0002-00D7-4D1B-BA87-00C0005A0031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$G$3:$G$7</xm:f>
           </x14:formula1>
@@ -5865,801 +5942,801 @@
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="B1" s="18"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" ht="56.399999999999999" customHeight="1">
-      <c r="B2" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="24"/>
-      <c r="AD2" s="25"/>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="22"/>
+      <c r="AD2" s="23"/>
     </row>
     <row r="3" ht="15">
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="29">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="27">
         <v>4</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <v>1</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <v>2</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>3</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="27">
         <v>4</v>
       </c>
-      <c r="J3" s="30">
+      <c r="J3" s="28">
         <v>1</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="29">
         <v>2</v>
       </c>
-      <c r="L3" s="31">
+      <c r="L3" s="29">
         <v>3</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="27">
         <v>4</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="28">
         <v>1</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="29">
         <v>2</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="29">
         <v>3</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="27">
         <v>4</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="28">
         <v>1</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="30">
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1">
-      <c r="B4" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
+      <c r="B4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="37"/>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
-      <c r="B5" s="33"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" ht="12" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="55"/>
-      <c r="U6" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="56"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="U6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="54"/>
     </row>
     <row r="7" ht="12" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="47"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="55"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
       <c r="U8" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="47"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="45"/>
     </row>
     <row r="10" ht="12" customHeight="1">
-      <c r="B10" s="33"/>
-      <c r="C10" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="55"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="64"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="B12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="39"/>
+      <c r="B12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="37"/>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="B13" s="33"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="55"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="65"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="B15" s="33"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="47"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="B16" s="33"/>
-      <c r="C16" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="55"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
     </row>
     <row r="17" ht="12" customHeight="1">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="60"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="64"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="62"/>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="B18" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="39"/>
+      <c r="B18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" ht="12" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="47"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="55"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
     </row>
     <row r="21" ht="12" customHeight="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="45"/>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="46"/>
-      <c r="S21" s="47"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
     </row>
     <row r="22" ht="12" customHeight="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="55"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="B23" s="57"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="64"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="62"/>
     </row>
     <row r="24" ht="12" customHeight="1">
-      <c r="B24" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="38"/>
-      <c r="S24" s="39"/>
+      <c r="B24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="B25" s="33"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
     </row>
     <row r="26" ht="12" customHeight="1">
-      <c r="B26" s="33"/>
-      <c r="C26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="54"/>
-      <c r="S26" s="55"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="B27" s="33"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="47"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
     </row>
     <row r="28" ht="12" customHeight="1">
-      <c r="B28" s="33"/>
-      <c r="C28" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="55"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="53"/>
     </row>
     <row r="29" ht="12" customHeight="1">
-      <c r="B29" s="33"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="73"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="76"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="78"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="76"/>
     </row>
     <row r="30" ht="12" customHeight="1">
-      <c r="B30" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="85"/>
+      <c r="B30" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="83"/>
     </row>
     <row r="31" ht="12" customHeight="1">
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="47"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="45"/>
     </row>
     <row r="32" ht="12" customHeight="1">
-      <c r="B32" s="86"/>
-      <c r="C32" s="87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="94"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="94"/>
-      <c r="S32" s="97"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="95"/>
     </row>
     <row r="33" ht="12" customHeight="1">
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="89"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="47"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="89"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="45"/>
     </row>
     <row r="34" ht="12" customHeight="1">
-      <c r="B34" s="86"/>
-      <c r="C34" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="101"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="104"/>
-      <c r="U34" s="105"/>
-      <c r="V34" s="106" t="s">
-        <v>51</v>
+      <c r="B34" s="84"/>
+      <c r="C34" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="70"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="102"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="104" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="13.800000000000001" customHeight="1">
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="110"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="110"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="110"/>
-      <c r="Q35" s="112"/>
-      <c r="R35" s="110"/>
-      <c r="S35" s="64"/>
-      <c r="U35" s="113"/>
-      <c r="V35" s="114" t="s">
-        <v>52</v>
+      <c r="B35" s="105"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="109"/>
+      <c r="P35" s="108"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="108"/>
+      <c r="S35" s="62"/>
+      <c r="U35" s="111"/>
+      <c r="V35" s="112" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6709,7 +6786,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" style="115" width="11.5546875"/>
+    <col min="3" max="3" style="113" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6719,1810 +6796,1810 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="115" t="s">
-        <v>53</v>
+      <c r="C1" s="113" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="116">
+      <c r="A2" s="114">
         <f t="array" ref="A2:A11">_xlfn.UNIQUE(Journal[date])</f>
         <v>45958</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="115">
         <f t="shared" ref="B2:B65" si="0">IF(C2&gt;0,C2,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C2" s="118">
+      <c r="C2" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A2,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="116">
+      <c r="A3" s="114">
         <f/>
         <v>45965</v>
       </c>
-      <c r="B3" s="117">
+      <c r="B3" s="115">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A3,Journal[Temps])</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="116">
+      <c r="A4" s="114">
         <f/>
         <v>45972</v>
       </c>
-      <c r="B4" s="117">
+      <c r="B4" s="115">
         <f t="shared" si="0"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A4,Journal[Temps])</f>
         <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="116">
+      <c r="A5" s="114">
         <f/>
         <v>45974</v>
       </c>
-      <c r="B5" s="117">
+      <c r="B5" s="115">
         <f t="shared" si="0"/>
         <v>0.0625</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A5,Journal[Temps])</f>
         <v>0.0625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="116">
+      <c r="A6" s="114">
         <f/>
         <v>45979</v>
       </c>
-      <c r="B6" s="117">
+      <c r="B6" s="115">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C6" s="118">
+      <c r="C6" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A6,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="116">
+      <c r="A7" s="114">
         <f/>
         <v>45986</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="115">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A7,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="116">
+      <c r="A8" s="114">
         <f/>
         <v>45993</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="115">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A8,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="116">
+      <c r="A9" s="114">
         <f/>
         <v>45995</v>
       </c>
-      <c r="B9" s="117">
+      <c r="B9" s="115">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C9" s="118">
+      <c r="C9" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A9,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="116">
+      <c r="A10" s="114">
         <f/>
         <v>46000</v>
       </c>
-      <c r="B10" s="117">
+      <c r="B10" s="115">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C10" s="118">
+      <c r="C10" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A10,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="116">
+      <c r="A11" s="114">
         <f/>
         <v>46007</v>
       </c>
-      <c r="B11" s="117">
+      <c r="B11" s="115">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C11" s="118">
+      <c r="C11" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A11,Journal[Temps])</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117" t="str">
+      <c r="A12" s="114"/>
+      <c r="B12" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="118">
+      <c r="C12" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A12,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117" t="str">
+      <c r="A13" s="114"/>
+      <c r="B13" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="118">
+      <c r="C13" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A13,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117" t="str">
+      <c r="A14" s="114"/>
+      <c r="B14" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="118">
+      <c r="C14" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A14,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117" t="str">
+      <c r="A15" s="114"/>
+      <c r="B15" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="118">
+      <c r="C15" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A15,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117" t="str">
+      <c r="A16" s="114"/>
+      <c r="B16" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="118">
+      <c r="C16" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A16,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117" t="str">
+      <c r="A17" s="114"/>
+      <c r="B17" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="118">
+      <c r="C17" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A17,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117" t="str">
+      <c r="A18" s="114"/>
+      <c r="B18" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="118">
+      <c r="C18" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A18,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117" t="str">
+      <c r="A19" s="114"/>
+      <c r="B19" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="118">
+      <c r="C19" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A19,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117" t="str">
+      <c r="A20" s="114"/>
+      <c r="B20" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="118">
+      <c r="C20" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A20,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117" t="str">
+      <c r="A21" s="114"/>
+      <c r="B21" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="118">
+      <c r="C21" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A21,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117" t="str">
+      <c r="A22" s="114"/>
+      <c r="B22" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="118">
+      <c r="C22" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A22,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117" t="str">
+      <c r="A23" s="114"/>
+      <c r="B23" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="118">
+      <c r="C23" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A23,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117" t="str">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="118">
+      <c r="C24" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A24,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117" t="str">
+      <c r="A25" s="114"/>
+      <c r="B25" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="118">
+      <c r="C25" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A25,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117" t="str">
+      <c r="A26" s="114"/>
+      <c r="B26" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="118">
+      <c r="C26" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A26,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117" t="str">
+      <c r="A27" s="114"/>
+      <c r="B27" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="118">
+      <c r="C27" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A27,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117" t="str">
+      <c r="A28" s="114"/>
+      <c r="B28" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="118">
+      <c r="C28" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A28,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117" t="str">
+      <c r="A29" s="114"/>
+      <c r="B29" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="118">
+      <c r="C29" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A29,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117" t="str">
+      <c r="A30" s="114"/>
+      <c r="B30" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A30,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117" t="str">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A31,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117" t="str">
+      <c r="A32" s="114"/>
+      <c r="B32" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="118">
+      <c r="C32" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A32,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117" t="str">
+      <c r="A33" s="114"/>
+      <c r="B33" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="118">
+      <c r="C33" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A33,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117" t="str">
+      <c r="A34" s="114"/>
+      <c r="B34" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="118">
+      <c r="C34" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A34,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117" t="str">
+      <c r="A35" s="114"/>
+      <c r="B35" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="118">
+      <c r="C35" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A35,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117" t="str">
+      <c r="A36" s="114"/>
+      <c r="B36" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="118">
+      <c r="C36" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A36,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117" t="str">
+      <c r="A37" s="114"/>
+      <c r="B37" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="118">
+      <c r="C37" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A37,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117" t="str">
+      <c r="A38" s="114"/>
+      <c r="B38" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="118">
+      <c r="C38" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A38,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="119"/>
-      <c r="B39" s="117" t="str">
+      <c r="A39" s="117"/>
+      <c r="B39" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="118">
+      <c r="C39" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A39,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="119"/>
-      <c r="B40" s="117" t="str">
+      <c r="A40" s="117"/>
+      <c r="B40" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C40" s="118">
+      <c r="C40" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A40,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="119"/>
-      <c r="B41" s="117" t="str">
+      <c r="A41" s="117"/>
+      <c r="B41" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A41,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="119"/>
-      <c r="B42" s="117" t="str">
+      <c r="A42" s="117"/>
+      <c r="B42" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A42,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="119"/>
-      <c r="B43" s="117" t="str">
+      <c r="A43" s="117"/>
+      <c r="B43" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C43" s="118">
+      <c r="C43" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A43,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="119"/>
-      <c r="B44" s="117" t="str">
+      <c r="A44" s="117"/>
+      <c r="B44" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="118">
+      <c r="C44" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A44,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="119"/>
-      <c r="B45" s="117" t="str">
+      <c r="A45" s="117"/>
+      <c r="B45" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C45" s="118">
+      <c r="C45" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A45,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="119"/>
-      <c r="B46" s="117" t="str">
+      <c r="A46" s="117"/>
+      <c r="B46" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C46" s="118">
+      <c r="C46" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A46,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="119"/>
-      <c r="B47" s="117" t="str">
+      <c r="A47" s="117"/>
+      <c r="B47" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C47" s="118">
+      <c r="C47" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A47,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="119"/>
-      <c r="B48" s="117" t="str">
+      <c r="A48" s="117"/>
+      <c r="B48" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="118">
+      <c r="C48" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A48,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="119"/>
-      <c r="B49" s="117" t="str">
+      <c r="A49" s="117"/>
+      <c r="B49" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C49" s="118">
+      <c r="C49" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A49,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="119"/>
-      <c r="B50" s="117" t="str">
+      <c r="A50" s="117"/>
+      <c r="B50" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C50" s="118">
+      <c r="C50" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A50,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="119"/>
-      <c r="B51" s="117" t="str">
+      <c r="A51" s="117"/>
+      <c r="B51" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C51" s="118">
+      <c r="C51" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A51,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="119"/>
-      <c r="B52" s="117" t="str">
+      <c r="A52" s="117"/>
+      <c r="B52" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C52" s="118">
+      <c r="C52" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A52,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="119"/>
-      <c r="B53" s="117" t="str">
+      <c r="A53" s="117"/>
+      <c r="B53" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C53" s="118">
+      <c r="C53" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A53,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="119"/>
-      <c r="B54" s="117" t="str">
+      <c r="A54" s="117"/>
+      <c r="B54" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C54" s="118">
+      <c r="C54" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A54,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="119"/>
-      <c r="B55" s="117" t="str">
+      <c r="A55" s="117"/>
+      <c r="B55" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="118">
+      <c r="C55" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A55,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="119"/>
-      <c r="B56" s="117" t="str">
+      <c r="A56" s="117"/>
+      <c r="B56" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="118">
+      <c r="C56" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A56,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="119"/>
-      <c r="B57" s="117" t="str">
+      <c r="A57" s="117"/>
+      <c r="B57" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C57" s="118">
+      <c r="C57" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A57,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="119"/>
-      <c r="B58" s="117" t="str">
+      <c r="A58" s="117"/>
+      <c r="B58" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="118">
+      <c r="C58" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A58,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="119"/>
-      <c r="B59" s="117" t="str">
+      <c r="A59" s="117"/>
+      <c r="B59" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C59" s="118">
+      <c r="C59" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A59,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="119"/>
-      <c r="B60" s="117" t="str">
+      <c r="A60" s="117"/>
+      <c r="B60" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C60" s="118">
+      <c r="C60" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A60,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="119"/>
-      <c r="B61" s="117" t="str">
+      <c r="A61" s="117"/>
+      <c r="B61" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C61" s="118">
+      <c r="C61" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A61,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="119"/>
-      <c r="B62" s="117" t="str">
+      <c r="A62" s="117"/>
+      <c r="B62" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C62" s="118">
+      <c r="C62" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A62,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="119"/>
-      <c r="B63" s="117" t="str">
+      <c r="A63" s="117"/>
+      <c r="B63" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C63" s="118">
+      <c r="C63" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A63,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="119"/>
-      <c r="B64" s="117" t="str">
+      <c r="A64" s="117"/>
+      <c r="B64" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C64" s="118">
+      <c r="C64" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A64,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="119"/>
-      <c r="B65" s="117" t="str">
+      <c r="A65" s="117"/>
+      <c r="B65" s="115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C65" s="118">
+      <c r="C65" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A65,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="119"/>
-      <c r="B66" s="117" t="str">
+      <c r="A66" s="117"/>
+      <c r="B66" s="115" t="str">
         <f t="shared" ref="B66:B114" si="1">IF(C66&gt;0,C66,"")</f>
         <v/>
       </c>
-      <c r="C66" s="118">
+      <c r="C66" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A66,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="119"/>
-      <c r="B67" s="117" t="str">
+      <c r="A67" s="117"/>
+      <c r="B67" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C67" s="118">
+      <c r="C67" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A67,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="119"/>
-      <c r="B68" s="117" t="str">
+      <c r="A68" s="117"/>
+      <c r="B68" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C68" s="118">
+      <c r="C68" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A68,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="119"/>
-      <c r="B69" s="117" t="str">
+      <c r="A69" s="117"/>
+      <c r="B69" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C69" s="118">
+      <c r="C69" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A69,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="119"/>
-      <c r="B70" s="117" t="str">
+      <c r="A70" s="117"/>
+      <c r="B70" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C70" s="118">
+      <c r="C70" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A70,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="119"/>
-      <c r="B71" s="117" t="str">
+      <c r="A71" s="117"/>
+      <c r="B71" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C71" s="118">
+      <c r="C71" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A71,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="119"/>
-      <c r="B72" s="117" t="str">
+      <c r="A72" s="117"/>
+      <c r="B72" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C72" s="118">
+      <c r="C72" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A72,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="119"/>
-      <c r="B73" s="117" t="str">
+      <c r="A73" s="117"/>
+      <c r="B73" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C73" s="118">
+      <c r="C73" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A73,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="119"/>
-      <c r="B74" s="117" t="str">
+      <c r="A74" s="117"/>
+      <c r="B74" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C74" s="118">
+      <c r="C74" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A74,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="119"/>
-      <c r="B75" s="117" t="str">
+      <c r="A75" s="117"/>
+      <c r="B75" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C75" s="118">
+      <c r="C75" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A75,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="119"/>
-      <c r="B76" s="117" t="str">
+      <c r="A76" s="117"/>
+      <c r="B76" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C76" s="118">
+      <c r="C76" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A76,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="119"/>
-      <c r="B77" s="117" t="str">
+      <c r="A77" s="117"/>
+      <c r="B77" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C77" s="118">
+      <c r="C77" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A77,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="119"/>
-      <c r="B78" s="117" t="str">
+      <c r="A78" s="117"/>
+      <c r="B78" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C78" s="118">
+      <c r="C78" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A78,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="119"/>
-      <c r="B79" s="117" t="str">
+      <c r="A79" s="117"/>
+      <c r="B79" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C79" s="118">
+      <c r="C79" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A79,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="119"/>
-      <c r="B80" s="117" t="str">
+      <c r="A80" s="117"/>
+      <c r="B80" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C80" s="118">
+      <c r="C80" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A80,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="119"/>
-      <c r="B81" s="117" t="str">
+      <c r="A81" s="117"/>
+      <c r="B81" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C81" s="118">
+      <c r="C81" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A81,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="119"/>
-      <c r="B82" s="117" t="str">
+      <c r="A82" s="117"/>
+      <c r="B82" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C82" s="118">
+      <c r="C82" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A82,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="119"/>
-      <c r="B83" s="117" t="str">
+      <c r="A83" s="117"/>
+      <c r="B83" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C83" s="118">
+      <c r="C83" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A83,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="119"/>
-      <c r="B84" s="117" t="str">
+      <c r="A84" s="117"/>
+      <c r="B84" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C84" s="118">
+      <c r="C84" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A84,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="119"/>
-      <c r="B85" s="117" t="str">
+      <c r="A85" s="117"/>
+      <c r="B85" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C85" s="118">
+      <c r="C85" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A85,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="119"/>
-      <c r="B86" s="117" t="str">
+      <c r="A86" s="117"/>
+      <c r="B86" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C86" s="118">
+      <c r="C86" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A86,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="119"/>
-      <c r="B87" s="117" t="str">
+      <c r="A87" s="117"/>
+      <c r="B87" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C87" s="118">
+      <c r="C87" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A87,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="119"/>
-      <c r="B88" s="117" t="str">
+      <c r="A88" s="117"/>
+      <c r="B88" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C88" s="118">
+      <c r="C88" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A88,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="119"/>
-      <c r="B89" s="117" t="str">
+      <c r="A89" s="117"/>
+      <c r="B89" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C89" s="118">
+      <c r="C89" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A89,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="119"/>
-      <c r="B90" s="117" t="str">
+      <c r="A90" s="117"/>
+      <c r="B90" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C90" s="118">
+      <c r="C90" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A90,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="119"/>
-      <c r="B91" s="117" t="str">
+      <c r="A91" s="117"/>
+      <c r="B91" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C91" s="118">
+      <c r="C91" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A91,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="119"/>
-      <c r="B92" s="117" t="str">
+      <c r="A92" s="117"/>
+      <c r="B92" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C92" s="118">
+      <c r="C92" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A92,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="119"/>
-      <c r="B93" s="117" t="str">
+      <c r="A93" s="117"/>
+      <c r="B93" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C93" s="118">
+      <c r="C93" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A93,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="119"/>
-      <c r="B94" s="117" t="str">
+      <c r="A94" s="117"/>
+      <c r="B94" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C94" s="118">
+      <c r="C94" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A94,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="119"/>
-      <c r="B95" s="117" t="str">
+      <c r="A95" s="117"/>
+      <c r="B95" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C95" s="118">
+      <c r="C95" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A95,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="119"/>
-      <c r="B96" s="117" t="str">
+      <c r="A96" s="117"/>
+      <c r="B96" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C96" s="118">
+      <c r="C96" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A96,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="119"/>
-      <c r="B97" s="117" t="str">
+      <c r="A97" s="117"/>
+      <c r="B97" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C97" s="118">
+      <c r="C97" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A97,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="119"/>
-      <c r="B98" s="117" t="str">
+      <c r="A98" s="117"/>
+      <c r="B98" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C98" s="118">
+      <c r="C98" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A98,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="119"/>
-      <c r="B99" s="117" t="str">
+      <c r="A99" s="117"/>
+      <c r="B99" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C99" s="118">
+      <c r="C99" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A99,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="119"/>
-      <c r="B100" s="117" t="str">
+      <c r="A100" s="117"/>
+      <c r="B100" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C100" s="118">
+      <c r="C100" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A100,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="119"/>
-      <c r="B101" s="117" t="str">
+      <c r="A101" s="117"/>
+      <c r="B101" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C101" s="118">
+      <c r="C101" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A101,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="119"/>
-      <c r="B102" s="117" t="str">
+      <c r="A102" s="117"/>
+      <c r="B102" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C102" s="118">
+      <c r="C102" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A102,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="119"/>
-      <c r="B103" s="117" t="str">
+      <c r="A103" s="117"/>
+      <c r="B103" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C103" s="118">
+      <c r="C103" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A103,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="119"/>
-      <c r="B104" s="117" t="str">
+      <c r="A104" s="117"/>
+      <c r="B104" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C104" s="118">
+      <c r="C104" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A104,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="119"/>
-      <c r="B105" s="117" t="str">
+      <c r="A105" s="117"/>
+      <c r="B105" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C105" s="118">
+      <c r="C105" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A105,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="119"/>
-      <c r="B106" s="117" t="str">
+      <c r="A106" s="117"/>
+      <c r="B106" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C106" s="118">
+      <c r="C106" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A106,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="119"/>
-      <c r="B107" s="117" t="str">
+      <c r="A107" s="117"/>
+      <c r="B107" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C107" s="118">
+      <c r="C107" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A107,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="119"/>
-      <c r="B108" s="117" t="str">
+      <c r="A108" s="117"/>
+      <c r="B108" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C108" s="118">
+      <c r="C108" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A108,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="119"/>
-      <c r="B109" s="117" t="str">
+      <c r="A109" s="117"/>
+      <c r="B109" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C109" s="118">
+      <c r="C109" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A109,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="119"/>
-      <c r="B110" s="117" t="str">
+      <c r="A110" s="117"/>
+      <c r="B110" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C110" s="118">
+      <c r="C110" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A110,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="119"/>
-      <c r="B111" s="117" t="str">
+      <c r="A111" s="117"/>
+      <c r="B111" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C111" s="118">
+      <c r="C111" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A111,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="119"/>
-      <c r="B112" s="117" t="str">
+      <c r="A112" s="117"/>
+      <c r="B112" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C112" s="118">
+      <c r="C112" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A112,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="119"/>
-      <c r="B113" s="117" t="str">
+      <c r="A113" s="117"/>
+      <c r="B113" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C113" s="118">
+      <c r="C113" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A113,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="119"/>
-      <c r="B114" s="117" t="str">
+      <c r="A114" s="117"/>
+      <c r="B114" s="115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C114" s="118">
+      <c r="C114" s="116">
         <f>SUMIF(Journal[date],SommeParJours!A114,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="119"/>
-      <c r="B115" s="119"/>
-      <c r="C115" s="118"/>
+      <c r="A115" s="117"/>
+      <c r="B115" s="117"/>
+      <c r="C115" s="116"/>
     </row>
     <row r="116">
-      <c r="A116" s="119"/>
-      <c r="B116" s="119"/>
-      <c r="C116" s="118"/>
+      <c r="A116" s="117"/>
+      <c r="B116" s="117"/>
+      <c r="C116" s="116"/>
     </row>
     <row r="117">
-      <c r="A117" s="119"/>
-      <c r="B117" s="119"/>
-      <c r="C117" s="118"/>
+      <c r="A117" s="117"/>
+      <c r="B117" s="117"/>
+      <c r="C117" s="116"/>
     </row>
     <row r="118">
-      <c r="A118" s="119"/>
-      <c r="B118" s="119"/>
-      <c r="C118" s="118"/>
+      <c r="A118" s="117"/>
+      <c r="B118" s="117"/>
+      <c r="C118" s="116"/>
     </row>
     <row r="119">
-      <c r="A119" s="119"/>
-      <c r="B119" s="119"/>
-      <c r="C119" s="118"/>
+      <c r="A119" s="117"/>
+      <c r="B119" s="117"/>
+      <c r="C119" s="116"/>
     </row>
     <row r="120">
-      <c r="A120" s="119"/>
-      <c r="B120" s="119"/>
-      <c r="C120" s="118"/>
+      <c r="A120" s="117"/>
+      <c r="B120" s="117"/>
+      <c r="C120" s="116"/>
     </row>
     <row r="121">
-      <c r="A121" s="119"/>
-      <c r="B121" s="119"/>
-      <c r="C121" s="118"/>
+      <c r="A121" s="117"/>
+      <c r="B121" s="117"/>
+      <c r="C121" s="116"/>
     </row>
     <row r="122">
-      <c r="A122" s="119"/>
-      <c r="B122" s="119"/>
-      <c r="C122" s="118"/>
+      <c r="A122" s="117"/>
+      <c r="B122" s="117"/>
+      <c r="C122" s="116"/>
     </row>
     <row r="123">
-      <c r="A123" s="119"/>
-      <c r="B123" s="119"/>
-      <c r="C123" s="118"/>
+      <c r="A123" s="117"/>
+      <c r="B123" s="117"/>
+      <c r="C123" s="116"/>
     </row>
     <row r="124">
-      <c r="A124" s="119"/>
-      <c r="B124" s="119"/>
-      <c r="C124" s="118"/>
+      <c r="A124" s="117"/>
+      <c r="B124" s="117"/>
+      <c r="C124" s="116"/>
     </row>
     <row r="125">
-      <c r="A125" s="119"/>
-      <c r="B125" s="119"/>
-      <c r="C125" s="118"/>
+      <c r="A125" s="117"/>
+      <c r="B125" s="117"/>
+      <c r="C125" s="116"/>
     </row>
     <row r="126">
-      <c r="A126" s="119"/>
-      <c r="B126" s="119"/>
-      <c r="C126" s="118"/>
+      <c r="A126" s="117"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="116"/>
     </row>
     <row r="127">
-      <c r="A127" s="119"/>
-      <c r="B127" s="119"/>
-      <c r="C127" s="118"/>
+      <c r="A127" s="117"/>
+      <c r="B127" s="117"/>
+      <c r="C127" s="116"/>
     </row>
     <row r="128">
-      <c r="A128" s="119"/>
-      <c r="B128" s="119"/>
-      <c r="C128" s="118"/>
+      <c r="A128" s="117"/>
+      <c r="B128" s="117"/>
+      <c r="C128" s="116"/>
     </row>
     <row r="129">
-      <c r="A129" s="119"/>
-      <c r="B129" s="119"/>
-      <c r="C129" s="118"/>
+      <c r="A129" s="117"/>
+      <c r="B129" s="117"/>
+      <c r="C129" s="116"/>
     </row>
     <row r="130">
-      <c r="A130" s="119"/>
-      <c r="B130" s="119"/>
-      <c r="C130" s="118"/>
+      <c r="A130" s="117"/>
+      <c r="B130" s="117"/>
+      <c r="C130" s="116"/>
     </row>
     <row r="131">
-      <c r="A131" s="119"/>
-      <c r="B131" s="119"/>
-      <c r="C131" s="118"/>
+      <c r="A131" s="117"/>
+      <c r="B131" s="117"/>
+      <c r="C131" s="116"/>
     </row>
     <row r="132">
-      <c r="A132" s="119"/>
-      <c r="B132" s="119"/>
-      <c r="C132" s="118"/>
+      <c r="A132" s="117"/>
+      <c r="B132" s="117"/>
+      <c r="C132" s="116"/>
     </row>
     <row r="133">
-      <c r="A133" s="119"/>
-      <c r="B133" s="119"/>
-      <c r="C133" s="118"/>
+      <c r="A133" s="117"/>
+      <c r="B133" s="117"/>
+      <c r="C133" s="116"/>
     </row>
     <row r="134">
-      <c r="A134" s="119"/>
-      <c r="B134" s="119"/>
-      <c r="C134" s="118"/>
+      <c r="A134" s="117"/>
+      <c r="B134" s="117"/>
+      <c r="C134" s="116"/>
     </row>
     <row r="135">
-      <c r="A135" s="119"/>
-      <c r="B135" s="119"/>
-      <c r="C135" s="118"/>
+      <c r="A135" s="117"/>
+      <c r="B135" s="117"/>
+      <c r="C135" s="116"/>
     </row>
     <row r="136">
-      <c r="A136" s="119"/>
-      <c r="B136" s="119"/>
-      <c r="C136" s="118"/>
+      <c r="A136" s="117"/>
+      <c r="B136" s="117"/>
+      <c r="C136" s="116"/>
     </row>
     <row r="137">
-      <c r="A137" s="119"/>
-      <c r="B137" s="119"/>
-      <c r="C137" s="118"/>
+      <c r="A137" s="117"/>
+      <c r="B137" s="117"/>
+      <c r="C137" s="116"/>
     </row>
     <row r="138">
-      <c r="A138" s="119"/>
-      <c r="B138" s="119"/>
-      <c r="C138" s="118"/>
+      <c r="A138" s="117"/>
+      <c r="B138" s="117"/>
+      <c r="C138" s="116"/>
     </row>
     <row r="139">
-      <c r="A139" s="119"/>
-      <c r="B139" s="119"/>
-      <c r="C139" s="118"/>
+      <c r="A139" s="117"/>
+      <c r="B139" s="117"/>
+      <c r="C139" s="116"/>
     </row>
     <row r="140">
-      <c r="A140" s="119"/>
-      <c r="B140" s="119"/>
-      <c r="C140" s="118"/>
+      <c r="A140" s="117"/>
+      <c r="B140" s="117"/>
+      <c r="C140" s="116"/>
     </row>
     <row r="141">
-      <c r="A141" s="119"/>
-      <c r="B141" s="119"/>
-      <c r="C141" s="118"/>
+      <c r="A141" s="117"/>
+      <c r="B141" s="117"/>
+      <c r="C141" s="116"/>
     </row>
     <row r="142">
-      <c r="A142" s="119"/>
-      <c r="B142" s="119"/>
-      <c r="C142" s="118"/>
+      <c r="A142" s="117"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="116"/>
     </row>
     <row r="143">
-      <c r="A143" s="119"/>
-      <c r="B143" s="119"/>
-      <c r="C143" s="118"/>
+      <c r="A143" s="117"/>
+      <c r="B143" s="117"/>
+      <c r="C143" s="116"/>
     </row>
     <row r="144">
-      <c r="A144" s="119"/>
-      <c r="B144" s="119"/>
-      <c r="C144" s="118"/>
+      <c r="A144" s="117"/>
+      <c r="B144" s="117"/>
+      <c r="C144" s="116"/>
     </row>
     <row r="145">
-      <c r="A145" s="119"/>
-      <c r="B145" s="119"/>
-      <c r="C145" s="118"/>
+      <c r="A145" s="117"/>
+      <c r="B145" s="117"/>
+      <c r="C145" s="116"/>
     </row>
     <row r="146">
-      <c r="A146" s="119"/>
-      <c r="B146" s="119"/>
-      <c r="C146" s="118"/>
+      <c r="A146" s="117"/>
+      <c r="B146" s="117"/>
+      <c r="C146" s="116"/>
     </row>
     <row r="147">
-      <c r="A147" s="119"/>
-      <c r="B147" s="119"/>
-      <c r="C147" s="118"/>
+      <c r="A147" s="117"/>
+      <c r="B147" s="117"/>
+      <c r="C147" s="116"/>
     </row>
     <row r="148">
-      <c r="A148" s="119"/>
-      <c r="B148" s="119"/>
-      <c r="C148" s="118"/>
+      <c r="A148" s="117"/>
+      <c r="B148" s="117"/>
+      <c r="C148" s="116"/>
     </row>
     <row r="149">
-      <c r="A149" s="119"/>
-      <c r="B149" s="119"/>
-      <c r="C149" s="118"/>
+      <c r="A149" s="117"/>
+      <c r="B149" s="117"/>
+      <c r="C149" s="116"/>
     </row>
     <row r="150">
-      <c r="A150" s="119"/>
-      <c r="B150" s="119"/>
-      <c r="C150" s="118"/>
+      <c r="A150" s="117"/>
+      <c r="B150" s="117"/>
+      <c r="C150" s="116"/>
     </row>
     <row r="151">
-      <c r="A151" s="119"/>
-      <c r="B151" s="119"/>
-      <c r="C151" s="118"/>
+      <c r="A151" s="117"/>
+      <c r="B151" s="117"/>
+      <c r="C151" s="116"/>
     </row>
     <row r="152">
-      <c r="A152" s="119"/>
-      <c r="B152" s="119"/>
-      <c r="C152" s="118"/>
+      <c r="A152" s="117"/>
+      <c r="B152" s="117"/>
+      <c r="C152" s="116"/>
     </row>
     <row r="153">
-      <c r="A153" s="119"/>
-      <c r="B153" s="119"/>
-      <c r="C153" s="118"/>
+      <c r="A153" s="117"/>
+      <c r="B153" s="117"/>
+      <c r="C153" s="116"/>
     </row>
     <row r="154">
-      <c r="A154" s="119"/>
-      <c r="B154" s="119"/>
-      <c r="C154" s="118"/>
+      <c r="A154" s="117"/>
+      <c r="B154" s="117"/>
+      <c r="C154" s="116"/>
     </row>
     <row r="155">
-      <c r="A155" s="119"/>
-      <c r="B155" s="119"/>
-      <c r="C155" s="118"/>
+      <c r="A155" s="117"/>
+      <c r="B155" s="117"/>
+      <c r="C155" s="116"/>
     </row>
     <row r="156">
-      <c r="A156" s="119"/>
-      <c r="B156" s="119"/>
-      <c r="C156" s="118"/>
+      <c r="A156" s="117"/>
+      <c r="B156" s="117"/>
+      <c r="C156" s="116"/>
     </row>
     <row r="157">
-      <c r="A157" s="119"/>
-      <c r="B157" s="119"/>
-      <c r="C157" s="118"/>
+      <c r="A157" s="117"/>
+      <c r="B157" s="117"/>
+      <c r="C157" s="116"/>
     </row>
     <row r="158">
-      <c r="A158" s="119"/>
-      <c r="B158" s="119"/>
-      <c r="C158" s="118"/>
+      <c r="A158" s="117"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="116"/>
     </row>
     <row r="159">
-      <c r="A159" s="119"/>
-      <c r="B159" s="119"/>
+      <c r="A159" s="117"/>
+      <c r="B159" s="117"/>
     </row>
     <row r="160">
-      <c r="A160" s="119"/>
-      <c r="B160" s="119"/>
+      <c r="A160" s="117"/>
+      <c r="B160" s="117"/>
     </row>
     <row r="161">
-      <c r="A161" s="119"/>
-      <c r="B161" s="119"/>
+      <c r="A161" s="117"/>
+      <c r="B161" s="117"/>
     </row>
     <row r="162">
-      <c r="A162" s="119"/>
-      <c r="B162" s="119"/>
+      <c r="A162" s="117"/>
+      <c r="B162" s="117"/>
     </row>
     <row r="163">
-      <c r="A163" s="119"/>
-      <c r="B163" s="119"/>
+      <c r="A163" s="117"/>
+      <c r="B163" s="117"/>
     </row>
     <row r="164">
-      <c r="A164" s="119"/>
-      <c r="B164" s="119"/>
+      <c r="A164" s="117"/>
+      <c r="B164" s="117"/>
     </row>
     <row r="165">
-      <c r="A165" s="119"/>
-      <c r="B165" s="119"/>
+      <c r="A165" s="117"/>
+      <c r="B165" s="117"/>
     </row>
     <row r="166">
-      <c r="A166" s="119"/>
-      <c r="B166" s="119"/>
+      <c r="A166" s="117"/>
+      <c r="B166" s="117"/>
     </row>
     <row r="167">
-      <c r="A167" s="119"/>
-      <c r="B167" s="119"/>
+      <c r="A167" s="117"/>
+      <c r="B167" s="117"/>
     </row>
     <row r="168">
-      <c r="A168" s="119"/>
-      <c r="B168" s="119"/>
+      <c r="A168" s="117"/>
+      <c r="B168" s="117"/>
     </row>
     <row r="169">
-      <c r="A169" s="119"/>
-      <c r="B169" s="119"/>
+      <c r="A169" s="117"/>
+      <c r="B169" s="117"/>
     </row>
     <row r="170">
-      <c r="A170" s="119"/>
-      <c r="B170" s="119"/>
+      <c r="A170" s="117"/>
+      <c r="B170" s="117"/>
     </row>
     <row r="171">
-      <c r="A171" s="119"/>
-      <c r="B171" s="119"/>
+      <c r="A171" s="117"/>
+      <c r="B171" s="117"/>
     </row>
     <row r="172">
-      <c r="A172" s="119"/>
-      <c r="B172" s="119"/>
+      <c r="A172" s="117"/>
+      <c r="B172" s="117"/>
     </row>
     <row r="173">
-      <c r="A173" s="119"/>
-      <c r="B173" s="119"/>
+      <c r="A173" s="117"/>
+      <c r="B173" s="117"/>
     </row>
     <row r="174">
-      <c r="A174" s="119"/>
-      <c r="B174" s="119"/>
+      <c r="A174" s="117"/>
+      <c r="B174" s="117"/>
     </row>
     <row r="175">
-      <c r="A175" s="119"/>
-      <c r="B175" s="119"/>
+      <c r="A175" s="117"/>
+      <c r="B175" s="117"/>
     </row>
     <row r="176">
-      <c r="A176" s="119"/>
-      <c r="B176" s="119"/>
+      <c r="A176" s="117"/>
+      <c r="B176" s="117"/>
     </row>
     <row r="177">
-      <c r="A177" s="119"/>
-      <c r="B177" s="119"/>
+      <c r="A177" s="117"/>
+      <c r="B177" s="117"/>
     </row>
     <row r="178">
-      <c r="A178" s="119"/>
-      <c r="B178" s="119"/>
+      <c r="A178" s="117"/>
+      <c r="B178" s="117"/>
     </row>
     <row r="179">
-      <c r="A179" s="119"/>
-      <c r="B179" s="119"/>
+      <c r="A179" s="117"/>
+      <c r="B179" s="117"/>
     </row>
     <row r="180">
-      <c r="A180" s="119"/>
-      <c r="B180" s="119"/>
+      <c r="A180" s="117"/>
+      <c r="B180" s="117"/>
     </row>
     <row r="181">
-      <c r="A181" s="119"/>
-      <c r="B181" s="119"/>
+      <c r="A181" s="117"/>
+      <c r="B181" s="117"/>
     </row>
     <row r="182">
-      <c r="A182" s="119"/>
-      <c r="B182" s="119"/>
+      <c r="A182" s="117"/>
+      <c r="B182" s="117"/>
     </row>
     <row r="183">
-      <c r="A183" s="119"/>
-      <c r="B183" s="119"/>
+      <c r="A183" s="117"/>
+      <c r="B183" s="117"/>
     </row>
     <row r="184">
-      <c r="A184" s="119"/>
-      <c r="B184" s="119"/>
+      <c r="A184" s="117"/>
+      <c r="B184" s="117"/>
     </row>
     <row r="185">
-      <c r="A185" s="119"/>
-      <c r="B185" s="119"/>
+      <c r="A185" s="117"/>
+      <c r="B185" s="117"/>
     </row>
     <row r="186">
-      <c r="A186" s="119"/>
-      <c r="B186" s="119"/>
+      <c r="A186" s="117"/>
+      <c r="B186" s="117"/>
     </row>
     <row r="187">
-      <c r="A187" s="119"/>
-      <c r="B187" s="119"/>
+      <c r="A187" s="117"/>
+      <c r="B187" s="117"/>
     </row>
     <row r="188">
-      <c r="A188" s="119"/>
-      <c r="B188" s="119"/>
+      <c r="A188" s="117"/>
+      <c r="B188" s="117"/>
     </row>
     <row r="189">
-      <c r="A189" s="119"/>
-      <c r="B189" s="119"/>
+      <c r="A189" s="117"/>
+      <c r="B189" s="117"/>
     </row>
     <row r="190">
-      <c r="A190" s="119"/>
-      <c r="B190" s="119"/>
+      <c r="A190" s="117"/>
+      <c r="B190" s="117"/>
     </row>
     <row r="191">
-      <c r="A191" s="119"/>
-      <c r="B191" s="119"/>
+      <c r="A191" s="117"/>
+      <c r="B191" s="117"/>
     </row>
     <row r="192">
-      <c r="A192" s="119"/>
-      <c r="B192" s="119"/>
+      <c r="A192" s="117"/>
+      <c r="B192" s="117"/>
     </row>
     <row r="193">
-      <c r="A193" s="119"/>
-      <c r="B193" s="119"/>
+      <c r="A193" s="117"/>
+      <c r="B193" s="117"/>
     </row>
     <row r="194">
-      <c r="A194" s="119"/>
-      <c r="B194" s="119"/>
+      <c r="A194" s="117"/>
+      <c r="B194" s="117"/>
     </row>
     <row r="195">
-      <c r="A195" s="119"/>
-      <c r="B195" s="119"/>
+      <c r="A195" s="117"/>
+      <c r="B195" s="117"/>
     </row>
     <row r="196">
-      <c r="A196" s="119"/>
-      <c r="B196" s="119"/>
+      <c r="A196" s="117"/>
+      <c r="B196" s="117"/>
     </row>
     <row r="197">
-      <c r="A197" s="119"/>
-      <c r="B197" s="119"/>
+      <c r="A197" s="117"/>
+      <c r="B197" s="117"/>
     </row>
     <row r="198">
-      <c r="A198" s="119"/>
-      <c r="B198" s="119"/>
+      <c r="A198" s="117"/>
+      <c r="B198" s="117"/>
     </row>
     <row r="199">
-      <c r="A199" s="119"/>
-      <c r="B199" s="119"/>
+      <c r="A199" s="117"/>
+      <c r="B199" s="117"/>
     </row>
     <row r="200">
-      <c r="A200" s="119"/>
-      <c r="B200" s="119"/>
+      <c r="A200" s="117"/>
+      <c r="B200" s="117"/>
     </row>
     <row r="201">
-      <c r="A201" s="119"/>
-      <c r="B201" s="119"/>
+      <c r="A201" s="117"/>
+      <c r="B201" s="117"/>
     </row>
     <row r="202">
-      <c r="A202" s="119"/>
-      <c r="B202" s="119"/>
+      <c r="A202" s="117"/>
+      <c r="B202" s="117"/>
     </row>
     <row r="203">
-      <c r="A203" s="119"/>
-      <c r="B203" s="119"/>
+      <c r="A203" s="117"/>
+      <c r="B203" s="117"/>
     </row>
     <row r="204">
-      <c r="A204" s="119"/>
-      <c r="B204" s="119"/>
+      <c r="A204" s="117"/>
+      <c r="B204" s="117"/>
     </row>
     <row r="205">
-      <c r="A205" s="119"/>
-      <c r="B205" s="119"/>
+      <c r="A205" s="117"/>
+      <c r="B205" s="117"/>
     </row>
     <row r="206">
-      <c r="A206" s="119"/>
-      <c r="B206" s="119"/>
+      <c r="A206" s="117"/>
+      <c r="B206" s="117"/>
     </row>
     <row r="207">
-      <c r="A207" s="119"/>
-      <c r="B207" s="119"/>
+      <c r="A207" s="117"/>
+      <c r="B207" s="117"/>
     </row>
     <row r="208">
-      <c r="A208" s="119"/>
-      <c r="B208" s="119"/>
+      <c r="A208" s="117"/>
+      <c r="B208" s="117"/>
     </row>
     <row r="209">
-      <c r="A209" s="119"/>
-      <c r="B209" s="119"/>
+      <c r="A209" s="117"/>
+      <c r="B209" s="117"/>
     </row>
     <row r="210">
-      <c r="A210" s="119"/>
-      <c r="B210" s="119"/>
+      <c r="A210" s="117"/>
+      <c r="B210" s="117"/>
     </row>
     <row r="211">
-      <c r="A211" s="119"/>
-      <c r="B211" s="119"/>
+      <c r="A211" s="117"/>
+      <c r="B211" s="117"/>
     </row>
     <row r="212">
-      <c r="A212" s="119"/>
-      <c r="B212" s="119"/>
+      <c r="A212" s="117"/>
+      <c r="B212" s="117"/>
     </row>
     <row r="213">
-      <c r="A213" s="119"/>
-      <c r="B213" s="119"/>
+      <c r="A213" s="117"/>
+      <c r="B213" s="117"/>
     </row>
     <row r="214">
-      <c r="A214" s="119"/>
-      <c r="B214" s="119"/>
+      <c r="A214" s="117"/>
+      <c r="B214" s="117"/>
     </row>
     <row r="215">
-      <c r="A215" s="119"/>
-      <c r="B215" s="119"/>
+      <c r="A215" s="117"/>
+      <c r="B215" s="117"/>
     </row>
     <row r="216">
-      <c r="A216" s="119"/>
-      <c r="B216" s="119"/>
+      <c r="A216" s="117"/>
+      <c r="B216" s="117"/>
     </row>
     <row r="217">
-      <c r="A217" s="119"/>
-      <c r="B217" s="119"/>
+      <c r="A217" s="117"/>
+      <c r="B217" s="117"/>
     </row>
     <row r="218">
-      <c r="A218" s="119"/>
-      <c r="B218" s="119"/>
+      <c r="A218" s="117"/>
+      <c r="B218" s="117"/>
     </row>
     <row r="219">
-      <c r="A219" s="119"/>
-      <c r="B219" s="119"/>
+      <c r="A219" s="117"/>
+      <c r="B219" s="117"/>
     </row>
     <row r="220">
-      <c r="A220" s="119"/>
-      <c r="B220" s="119"/>
+      <c r="A220" s="117"/>
+      <c r="B220" s="117"/>
     </row>
     <row r="221">
-      <c r="A221" s="119"/>
-      <c r="B221" s="119"/>
+      <c r="A221" s="117"/>
+      <c r="B221" s="117"/>
     </row>
     <row r="222">
-      <c r="A222" s="119"/>
-      <c r="B222" s="119"/>
+      <c r="A222" s="117"/>
+      <c r="B222" s="117"/>
     </row>
     <row r="223">
-      <c r="A223" s="119"/>
-      <c r="B223" s="119"/>
+      <c r="A223" s="117"/>
+      <c r="B223" s="117"/>
     </row>
     <row r="224">
-      <c r="A224" s="119"/>
-      <c r="B224" s="119"/>
+      <c r="A224" s="117"/>
+      <c r="B224" s="117"/>
     </row>
     <row r="225">
-      <c r="A225" s="119"/>
-      <c r="B225" s="119"/>
+      <c r="A225" s="117"/>
+      <c r="B225" s="117"/>
     </row>
     <row r="226">
-      <c r="A226" s="119"/>
-      <c r="B226" s="119"/>
+      <c r="A226" s="117"/>
+      <c r="B226" s="117"/>
     </row>
     <row r="227">
-      <c r="A227" s="119"/>
-      <c r="B227" s="119"/>
+      <c r="A227" s="117"/>
+      <c r="B227" s="117"/>
     </row>
     <row r="228">
-      <c r="A228" s="119"/>
-      <c r="B228" s="119"/>
+      <c r="A228" s="117"/>
+      <c r="B228" s="117"/>
     </row>
     <row r="229">
-      <c r="A229" s="119"/>
-      <c r="B229" s="119"/>
+      <c r="A229" s="117"/>
+      <c r="B229" s="117"/>
     </row>
     <row r="230">
-      <c r="A230" s="119"/>
-      <c r="B230" s="119"/>
+      <c r="A230" s="117"/>
+      <c r="B230" s="117"/>
     </row>
     <row r="231">
-      <c r="A231" s="119"/>
-      <c r="B231" s="119"/>
+      <c r="A231" s="117"/>
+      <c r="B231" s="117"/>
     </row>
     <row r="232">
-      <c r="A232" s="119"/>
-      <c r="B232" s="119"/>
+      <c r="A232" s="117"/>
+      <c r="B232" s="117"/>
     </row>
     <row r="233">
-      <c r="A233" s="119"/>
-      <c r="B233" s="119"/>
+      <c r="A233" s="117"/>
+      <c r="B233" s="117"/>
     </row>
     <row r="234">
-      <c r="A234" s="119"/>
-      <c r="B234" s="119"/>
+      <c r="A234" s="117"/>
+      <c r="B234" s="117"/>
     </row>
     <row r="235">
-      <c r="A235" s="119"/>
-      <c r="B235" s="119"/>
+      <c r="A235" s="117"/>
+      <c r="B235" s="117"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Documentation/HoferL-Journal&Planif-M5.xlsx
+++ b/Documentation/HoferL-Journal&Planif-M5.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Graphique" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="PlanificationExemple" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="SommeParJours" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Plannification" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PlanificationExemple" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SommeParJours" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$B$2:$H$30</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>date</t>
   </si>
@@ -108,12 +109,117 @@
     <t>Somme</t>
   </si>
   <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
     <t>Phases</t>
   </si>
   <si>
     <t>Tâche</t>
   </si>
   <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>26.01.2026</t>
+  </si>
+  <si>
+    <t>02.02.2026</t>
+  </si>
+  <si>
+    <t>09.03.2026</t>
+  </si>
+  <si>
+    <t>10.03.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacances (16-20 fev.)</t>
+  </si>
+  <si>
+    <t>23.02.2026</t>
+  </si>
+  <si>
+    <t>24.02.2026</t>
+  </si>
+  <si>
+    <t>02.03.2026</t>
+  </si>
+  <si>
+    <t>03.03.2026</t>
+  </si>
+  <si>
+    <t>16.03.2026</t>
+  </si>
+  <si>
+    <t>17.03.2026</t>
+  </si>
+  <si>
+    <t>24.03.2026</t>
+  </si>
+  <si>
+    <t>30.03.2026</t>
+  </si>
+  <si>
+    <t>31.03.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacances (6-18 avr.)</t>
+  </si>
+  <si>
+    <t>20.04.2026</t>
+  </si>
+  <si>
+    <t>21.04.2026</t>
+  </si>
+  <si>
+    <t>28.04.2026</t>
+  </si>
+  <si>
+    <t>04.05.2026</t>
+  </si>
+  <si>
+    <t>05.05.2026</t>
+  </si>
+  <si>
+    <t>12.05.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absent (18-22 Mai)</t>
+  </si>
+  <si>
+    <t>26.05.2026</t>
+  </si>
+  <si>
+    <t>01.06.2026</t>
+  </si>
+  <si>
+    <t>02.06.2026</t>
+  </si>
+  <si>
+    <t>08.06.2026</t>
+  </si>
+  <si>
+    <t>09.06.2026</t>
+  </si>
+  <si>
+    <t>11.06.2026</t>
+  </si>
+  <si>
     <t>Mois</t>
   </si>
   <si>
@@ -124,12 +230,6 @@
   </si>
   <si>
     <t>Décembre</t>
-  </si>
-  <si>
-    <t>Janvier</t>
-  </si>
-  <si>
-    <t>Février</t>
   </si>
   <si>
     <t>S</t>
@@ -229,10 +329,16 @@
     <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -305,6 +411,37 @@
     <border>
       <left style="none"/>
       <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -359,17 +496,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
     <border>
@@ -602,15 +728,6 @@
     </border>
     <border>
       <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
@@ -1019,22 +1136,11 @@
       </bottom>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="136">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,40 +1185,92 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="15" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="15" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1120,126 +1278,129 @@
     <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="13" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="29" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="30" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="31" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="32" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="33" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="5" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="32" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="35" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="37" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="37" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="39" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="39" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="40" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="40" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="41" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="42" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="43" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="45" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="45" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="46" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="47" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="48" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="46" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="49" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="50" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="47" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="50" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="51" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="52" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="47" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="53" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="48" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="53" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="49" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="54" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="55" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="56" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="57" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="57" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="58" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="58" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="59" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="59" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="60" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="60" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="61" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="62" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="63" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="64" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="64" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -5878,7 +6039,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{006A0002-00D7-4D1B-BA87-00C0005A0031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0060003B-00C6-4B37-A119-005200D8001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>$G$3:$G$7</xm:f>
           </x14:formula1>
@@ -5918,6 +6079,227 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="3" max="3" width="31.29296875"/>
+    <col customWidth="1" min="5" max="49" width="3.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.5" customHeight="1">
+      <c r="E1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+    </row>
+    <row r="2" ht="98.5" customHeight="1">
+      <c r="B2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG2" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="29"/>
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="29"/>
+      <c r="AV2" s="29"/>
+      <c r="AW2" s="29"/>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="C56" s="32"/>
+      <c r="D56" s="33"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="C57" s="32"/>
+      <c r="D57" s="34"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="O1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9"/>
     <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
@@ -5942,801 +6324,801 @@
   </cols>
   <sheetData>
     <row r="1" ht="15">
-      <c r="B1" s="16"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" ht="56.399999999999999" customHeight="1">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="22"/>
-      <c r="AD2" s="23"/>
+      <c r="S2" s="41"/>
+      <c r="AD2" s="42"/>
     </row>
     <row r="3" ht="15">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="B3" s="43"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="46">
         <v>4</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="47">
         <v>1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="48">
         <v>2</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="48">
         <v>3</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="46">
         <v>4</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="47">
         <v>1</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="48">
         <v>2</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="48">
         <v>3</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="46">
         <v>4</v>
       </c>
-      <c r="N3" s="28">
+      <c r="N3" s="47">
         <v>1</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="48">
         <v>2</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="48">
         <v>3</v>
       </c>
-      <c r="Q3" s="27">
+      <c r="Q3" s="46">
         <v>4</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="47">
         <v>1</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="49">
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="12" customHeight="1">
-      <c r="B4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="37"/>
+      <c r="B4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" ht="12" customHeight="1">
-      <c r="B5" s="31"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="64"/>
     </row>
     <row r="6" ht="12" customHeight="1">
-      <c r="B6" s="31"/>
-      <c r="C6" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="53"/>
-      <c r="U6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="V6" s="54"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="72"/>
+      <c r="U6" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="V6" s="73"/>
     </row>
     <row r="7" ht="12" customHeight="1">
-      <c r="B7" s="31"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="45"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1">
-      <c r="B8" s="31"/>
-      <c r="C8" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="72"/>
       <c r="U8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="12" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="45"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="64"/>
     </row>
     <row r="10" ht="12" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="53"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="72"/>
     </row>
     <row r="11" ht="12" customHeight="1">
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="62"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="81"/>
     </row>
     <row r="12" ht="12" customHeight="1">
-      <c r="B12" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="37"/>
+      <c r="B12" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
     </row>
     <row r="13" ht="12" customHeight="1">
-      <c r="B13" s="31"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="64"/>
     </row>
     <row r="14" ht="12" customHeight="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="52"/>
-      <c r="S14" s="53"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="84"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
     </row>
     <row r="15" ht="12" customHeight="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="64"/>
     </row>
     <row r="16" ht="12" customHeight="1">
-      <c r="B16" s="31"/>
-      <c r="C16" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
     </row>
     <row r="17" ht="12" customHeight="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="62"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="81"/>
     </row>
     <row r="18" ht="12" customHeight="1">
-      <c r="B18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
+      <c r="B18" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="56"/>
     </row>
     <row r="19" ht="12" customHeight="1">
-      <c r="B19" s="31"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
     </row>
     <row r="20" ht="12" customHeight="1">
-      <c r="B20" s="31"/>
-      <c r="C20" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="53"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="72"/>
     </row>
     <row r="21" ht="12" customHeight="1">
-      <c r="B21" s="31"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="88"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="64"/>
     </row>
     <row r="22" ht="12" customHeight="1">
-      <c r="B22" s="31"/>
-      <c r="C22" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="52"/>
-      <c r="S22" s="53"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="72"/>
     </row>
     <row r="23" ht="12" customHeight="1">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="62"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="78"/>
+      <c r="S23" s="81"/>
     </row>
     <row r="24" ht="12" customHeight="1">
-      <c r="B24" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
+      <c r="B24" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
     </row>
     <row r="25" ht="12" customHeight="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="64"/>
     </row>
     <row r="26" ht="12" customHeight="1">
-      <c r="B26" s="31"/>
-      <c r="C26" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="69"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="72"/>
     </row>
     <row r="27" ht="12" customHeight="1">
-      <c r="B27" s="31"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="64"/>
     </row>
     <row r="28" ht="12" customHeight="1">
-      <c r="B28" s="31"/>
-      <c r="C28" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="51"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="52"/>
-      <c r="S28" s="53"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
     </row>
     <row r="29" ht="12" customHeight="1">
-      <c r="B29" s="31"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="76"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="93"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="95"/>
     </row>
     <row r="30" ht="12" customHeight="1">
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="81"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="83"/>
+      <c r="C30" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="51"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
+      <c r="M30" s="101"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="102"/>
     </row>
     <row r="31" ht="12" customHeight="1">
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="45"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="106"/>
+      <c r="O31" s="107"/>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="108"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="64"/>
     </row>
     <row r="32" ht="12" customHeight="1">
-      <c r="B32" s="84"/>
-      <c r="C32" s="85" t="s">
+      <c r="B32" s="103"/>
+      <c r="C32" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="95"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="113"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="114"/>
     </row>
     <row r="33" ht="12" customHeight="1">
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="89"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="45"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="109"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="106"/>
+      <c r="S33" s="64"/>
     </row>
     <row r="34" ht="12" customHeight="1">
-      <c r="B34" s="84"/>
-      <c r="C34" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="70"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="100"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="102"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="104" t="s">
-        <v>61</v>
+      <c r="B34" s="103"/>
+      <c r="C34" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="118"/>
+      <c r="G34" s="118"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="119"/>
+      <c r="P34" s="118"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="121"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="123" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="13.800000000000001" customHeight="1">
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="110"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="108"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="110"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="108"/>
-      <c r="S35" s="62"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="112" t="s">
-        <v>62</v>
+      <c r="B35" s="124"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="128"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="128"/>
+      <c r="P35" s="127"/>
+      <c r="Q35" s="129"/>
+      <c r="R35" s="127"/>
+      <c r="S35" s="81"/>
+      <c r="U35" s="34"/>
+      <c r="V35" s="130" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +7159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
@@ -6786,7 +7168,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" style="113" width="11.5546875"/>
+    <col min="3" max="3" style="131" width="11.5546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6796,1810 +7178,1810 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="113" t="s">
-        <v>63</v>
+      <c r="C1" s="131" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="114">
+      <c r="A2" s="132">
         <f t="array" ref="A2:A11">_xlfn.UNIQUE(Journal[date])</f>
         <v>45958</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="133">
         <f t="shared" ref="B2:B65" si="0">IF(C2&gt;0,C2,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C2" s="116">
+      <c r="C2" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A2,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="114">
+      <c r="A3" s="132">
         <f/>
         <v>45965</v>
       </c>
-      <c r="B3" s="115">
+      <c r="B3" s="133">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="C3" s="116">
+      <c r="C3" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A3,Journal[Temps])</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="114">
+      <c r="A4" s="132">
         <f/>
         <v>45972</v>
       </c>
-      <c r="B4" s="115">
+      <c r="B4" s="133">
         <f t="shared" si="0"/>
         <v>0.35416666666666663</v>
       </c>
-      <c r="C4" s="116">
+      <c r="C4" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A4,Journal[Temps])</f>
         <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="114">
+      <c r="A5" s="132">
         <f/>
         <v>45974</v>
       </c>
-      <c r="B5" s="115">
+      <c r="B5" s="133">
         <f t="shared" si="0"/>
         <v>0.0625</v>
       </c>
-      <c r="C5" s="116">
+      <c r="C5" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A5,Journal[Temps])</f>
         <v>0.0625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="114">
+      <c r="A6" s="132">
         <f/>
         <v>45979</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="133">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C6" s="116">
+      <c r="C6" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A6,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="114">
+      <c r="A7" s="132">
         <f/>
         <v>45986</v>
       </c>
-      <c r="B7" s="115">
+      <c r="B7" s="133">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C7" s="116">
+      <c r="C7" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A7,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="114">
+      <c r="A8" s="132">
         <f/>
         <v>45993</v>
       </c>
-      <c r="B8" s="115">
+      <c r="B8" s="133">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C8" s="116">
+      <c r="C8" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A8,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="114">
+      <c r="A9" s="132">
         <f/>
         <v>45995</v>
       </c>
-      <c r="B9" s="115">
+      <c r="B9" s="133">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C9" s="116">
+      <c r="C9" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A9,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="114">
+      <c r="A10" s="132">
         <f/>
         <v>46000</v>
       </c>
-      <c r="B10" s="115">
+      <c r="B10" s="133">
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C10" s="116">
+      <c r="C10" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A10,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="114">
+      <c r="A11" s="132">
         <f/>
         <v>46007</v>
       </c>
-      <c r="B11" s="115">
+      <c r="B11" s="133">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A11,Journal[Temps])</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115" t="str">
+      <c r="A12" s="132"/>
+      <c r="B12" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="116">
+      <c r="C12" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A12,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115" t="str">
+      <c r="A13" s="132"/>
+      <c r="B13" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="116">
+      <c r="C13" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A13,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115" t="str">
+      <c r="A14" s="132"/>
+      <c r="B14" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A14,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115" t="str">
+      <c r="A15" s="132"/>
+      <c r="B15" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="116">
+      <c r="C15" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A15,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115" t="str">
+      <c r="A16" s="132"/>
+      <c r="B16" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="116">
+      <c r="C16" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A16,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115" t="str">
+      <c r="A17" s="132"/>
+      <c r="B17" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="116">
+      <c r="C17" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A17,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115" t="str">
+      <c r="A18" s="132"/>
+      <c r="B18" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="116">
+      <c r="C18" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A18,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115" t="str">
+      <c r="A19" s="132"/>
+      <c r="B19" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="116">
+      <c r="C19" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A19,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115" t="str">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="116">
+      <c r="C20" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A20,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115" t="str">
+      <c r="A21" s="132"/>
+      <c r="B21" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="116">
+      <c r="C21" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A21,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115" t="str">
+      <c r="A22" s="132"/>
+      <c r="B22" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="116">
+      <c r="C22" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A22,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115" t="str">
+      <c r="A23" s="132"/>
+      <c r="B23" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A23,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115" t="str">
+      <c r="A24" s="132"/>
+      <c r="B24" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="116">
+      <c r="C24" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A24,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115" t="str">
+      <c r="A25" s="132"/>
+      <c r="B25" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="116">
+      <c r="C25" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A25,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115" t="str">
+      <c r="A26" s="132"/>
+      <c r="B26" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="116">
+      <c r="C26" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A26,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115" t="str">
+      <c r="A27" s="132"/>
+      <c r="B27" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="116">
+      <c r="C27" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A27,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115" t="str">
+      <c r="A28" s="132"/>
+      <c r="B28" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="116">
+      <c r="C28" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A28,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115" t="str">
+      <c r="A29" s="132"/>
+      <c r="B29" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="116">
+      <c r="C29" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A29,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115" t="str">
+      <c r="A30" s="132"/>
+      <c r="B30" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="116">
+      <c r="C30" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A30,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115" t="str">
+      <c r="A31" s="132"/>
+      <c r="B31" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="116">
+      <c r="C31" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A31,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115" t="str">
+      <c r="A32" s="132"/>
+      <c r="B32" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="116">
+      <c r="C32" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A32,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115" t="str">
+      <c r="A33" s="132"/>
+      <c r="B33" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A33,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115" t="str">
+      <c r="A34" s="132"/>
+      <c r="B34" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="116">
+      <c r="C34" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A34,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115" t="str">
+      <c r="A35" s="132"/>
+      <c r="B35" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A35,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115" t="str">
+      <c r="A36" s="132"/>
+      <c r="B36" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="116">
+      <c r="C36" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A36,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115" t="str">
+      <c r="A37" s="132"/>
+      <c r="B37" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="116">
+      <c r="C37" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A37,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115" t="str">
+      <c r="A38" s="132"/>
+      <c r="B38" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="116">
+      <c r="C38" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A38,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="117"/>
-      <c r="B39" s="115" t="str">
+      <c r="A39" s="135"/>
+      <c r="B39" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="116">
+      <c r="C39" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A39,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="117"/>
-      <c r="B40" s="115" t="str">
+      <c r="A40" s="135"/>
+      <c r="B40" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C40" s="116">
+      <c r="C40" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A40,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="117"/>
-      <c r="B41" s="115" t="str">
+      <c r="A41" s="135"/>
+      <c r="B41" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C41" s="116">
+      <c r="C41" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A41,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="117"/>
-      <c r="B42" s="115" t="str">
+      <c r="A42" s="135"/>
+      <c r="B42" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C42" s="116">
+      <c r="C42" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A42,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="117"/>
-      <c r="B43" s="115" t="str">
+      <c r="A43" s="135"/>
+      <c r="B43" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C43" s="116">
+      <c r="C43" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A43,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="117"/>
-      <c r="B44" s="115" t="str">
+      <c r="A44" s="135"/>
+      <c r="B44" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="116">
+      <c r="C44" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A44,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="117"/>
-      <c r="B45" s="115" t="str">
+      <c r="A45" s="135"/>
+      <c r="B45" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C45" s="116">
+      <c r="C45" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A45,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="117"/>
-      <c r="B46" s="115" t="str">
+      <c r="A46" s="135"/>
+      <c r="B46" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C46" s="116">
+      <c r="C46" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A46,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="117"/>
-      <c r="B47" s="115" t="str">
+      <c r="A47" s="135"/>
+      <c r="B47" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C47" s="116">
+      <c r="C47" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A47,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="117"/>
-      <c r="B48" s="115" t="str">
+      <c r="A48" s="135"/>
+      <c r="B48" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="116">
+      <c r="C48" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A48,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="117"/>
-      <c r="B49" s="115" t="str">
+      <c r="A49" s="135"/>
+      <c r="B49" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C49" s="116">
+      <c r="C49" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A49,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="117"/>
-      <c r="B50" s="115" t="str">
+      <c r="A50" s="135"/>
+      <c r="B50" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C50" s="116">
+      <c r="C50" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A50,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="117"/>
-      <c r="B51" s="115" t="str">
+      <c r="A51" s="135"/>
+      <c r="B51" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C51" s="116">
+      <c r="C51" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A51,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="117"/>
-      <c r="B52" s="115" t="str">
+      <c r="A52" s="135"/>
+      <c r="B52" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C52" s="116">
+      <c r="C52" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A52,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="117"/>
-      <c r="B53" s="115" t="str">
+      <c r="A53" s="135"/>
+      <c r="B53" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C53" s="116">
+      <c r="C53" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A53,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="117"/>
-      <c r="B54" s="115" t="str">
+      <c r="A54" s="135"/>
+      <c r="B54" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C54" s="116">
+      <c r="C54" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A54,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="117"/>
-      <c r="B55" s="115" t="str">
+      <c r="A55" s="135"/>
+      <c r="B55" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="116">
+      <c r="C55" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A55,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="117"/>
-      <c r="B56" s="115" t="str">
+      <c r="A56" s="135"/>
+      <c r="B56" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="116">
+      <c r="C56" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A56,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="117"/>
-      <c r="B57" s="115" t="str">
+      <c r="A57" s="135"/>
+      <c r="B57" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C57" s="116">
+      <c r="C57" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A57,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="117"/>
-      <c r="B58" s="115" t="str">
+      <c r="A58" s="135"/>
+      <c r="B58" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="116">
+      <c r="C58" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A58,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="117"/>
-      <c r="B59" s="115" t="str">
+      <c r="A59" s="135"/>
+      <c r="B59" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C59" s="116">
+      <c r="C59" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A59,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="117"/>
-      <c r="B60" s="115" t="str">
+      <c r="A60" s="135"/>
+      <c r="B60" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C60" s="116">
+      <c r="C60" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A60,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="117"/>
-      <c r="B61" s="115" t="str">
+      <c r="A61" s="135"/>
+      <c r="B61" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C61" s="116">
+      <c r="C61" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A61,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="117"/>
-      <c r="B62" s="115" t="str">
+      <c r="A62" s="135"/>
+      <c r="B62" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C62" s="116">
+      <c r="C62" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A62,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="117"/>
-      <c r="B63" s="115" t="str">
+      <c r="A63" s="135"/>
+      <c r="B63" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C63" s="116">
+      <c r="C63" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A63,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="117"/>
-      <c r="B64" s="115" t="str">
+      <c r="A64" s="135"/>
+      <c r="B64" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C64" s="116">
+      <c r="C64" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A64,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="117"/>
-      <c r="B65" s="115" t="str">
+      <c r="A65" s="135"/>
+      <c r="B65" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C65" s="116">
+      <c r="C65" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A65,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="117"/>
-      <c r="B66" s="115" t="str">
+      <c r="A66" s="135"/>
+      <c r="B66" s="133" t="str">
         <f t="shared" ref="B66:B114" si="1">IF(C66&gt;0,C66,"")</f>
         <v/>
       </c>
-      <c r="C66" s="116">
+      <c r="C66" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A66,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="117"/>
-      <c r="B67" s="115" t="str">
+      <c r="A67" s="135"/>
+      <c r="B67" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C67" s="116">
+      <c r="C67" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A67,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="117"/>
-      <c r="B68" s="115" t="str">
+      <c r="A68" s="135"/>
+      <c r="B68" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C68" s="116">
+      <c r="C68" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A68,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="117"/>
-      <c r="B69" s="115" t="str">
+      <c r="A69" s="135"/>
+      <c r="B69" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C69" s="116">
+      <c r="C69" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A69,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="117"/>
-      <c r="B70" s="115" t="str">
+      <c r="A70" s="135"/>
+      <c r="B70" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C70" s="116">
+      <c r="C70" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A70,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="117"/>
-      <c r="B71" s="115" t="str">
+      <c r="A71" s="135"/>
+      <c r="B71" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C71" s="116">
+      <c r="C71" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A71,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="117"/>
-      <c r="B72" s="115" t="str">
+      <c r="A72" s="135"/>
+      <c r="B72" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C72" s="116">
+      <c r="C72" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A72,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="117"/>
-      <c r="B73" s="115" t="str">
+      <c r="A73" s="135"/>
+      <c r="B73" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C73" s="116">
+      <c r="C73" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A73,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="117"/>
-      <c r="B74" s="115" t="str">
+      <c r="A74" s="135"/>
+      <c r="B74" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C74" s="116">
+      <c r="C74" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A74,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="117"/>
-      <c r="B75" s="115" t="str">
+      <c r="A75" s="135"/>
+      <c r="B75" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C75" s="116">
+      <c r="C75" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A75,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="117"/>
-      <c r="B76" s="115" t="str">
+      <c r="A76" s="135"/>
+      <c r="B76" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C76" s="116">
+      <c r="C76" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A76,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="117"/>
-      <c r="B77" s="115" t="str">
+      <c r="A77" s="135"/>
+      <c r="B77" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C77" s="116">
+      <c r="C77" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A77,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="117"/>
-      <c r="B78" s="115" t="str">
+      <c r="A78" s="135"/>
+      <c r="B78" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C78" s="116">
+      <c r="C78" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A78,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="117"/>
-      <c r="B79" s="115" t="str">
+      <c r="A79" s="135"/>
+      <c r="B79" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C79" s="116">
+      <c r="C79" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A79,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="117"/>
-      <c r="B80" s="115" t="str">
+      <c r="A80" s="135"/>
+      <c r="B80" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C80" s="116">
+      <c r="C80" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A80,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="117"/>
-      <c r="B81" s="115" t="str">
+      <c r="A81" s="135"/>
+      <c r="B81" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C81" s="116">
+      <c r="C81" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A81,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="117"/>
-      <c r="B82" s="115" t="str">
+      <c r="A82" s="135"/>
+      <c r="B82" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C82" s="116">
+      <c r="C82" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A82,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="117"/>
-      <c r="B83" s="115" t="str">
+      <c r="A83" s="135"/>
+      <c r="B83" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C83" s="116">
+      <c r="C83" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A83,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="117"/>
-      <c r="B84" s="115" t="str">
+      <c r="A84" s="135"/>
+      <c r="B84" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C84" s="116">
+      <c r="C84" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A84,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="117"/>
-      <c r="B85" s="115" t="str">
+      <c r="A85" s="135"/>
+      <c r="B85" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C85" s="116">
+      <c r="C85" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A85,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="117"/>
-      <c r="B86" s="115" t="str">
+      <c r="A86" s="135"/>
+      <c r="B86" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C86" s="116">
+      <c r="C86" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A86,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="117"/>
-      <c r="B87" s="115" t="str">
+      <c r="A87" s="135"/>
+      <c r="B87" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C87" s="116">
+      <c r="C87" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A87,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="117"/>
-      <c r="B88" s="115" t="str">
+      <c r="A88" s="135"/>
+      <c r="B88" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C88" s="116">
+      <c r="C88" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A88,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="117"/>
-      <c r="B89" s="115" t="str">
+      <c r="A89" s="135"/>
+      <c r="B89" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C89" s="116">
+      <c r="C89" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A89,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="117"/>
-      <c r="B90" s="115" t="str">
+      <c r="A90" s="135"/>
+      <c r="B90" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C90" s="116">
+      <c r="C90" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A90,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="117"/>
-      <c r="B91" s="115" t="str">
+      <c r="A91" s="135"/>
+      <c r="B91" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C91" s="116">
+      <c r="C91" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A91,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="117"/>
-      <c r="B92" s="115" t="str">
+      <c r="A92" s="135"/>
+      <c r="B92" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C92" s="116">
+      <c r="C92" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A92,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="117"/>
-      <c r="B93" s="115" t="str">
+      <c r="A93" s="135"/>
+      <c r="B93" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C93" s="116">
+      <c r="C93" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A93,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="117"/>
-      <c r="B94" s="115" t="str">
+      <c r="A94" s="135"/>
+      <c r="B94" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C94" s="116">
+      <c r="C94" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A94,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="117"/>
-      <c r="B95" s="115" t="str">
+      <c r="A95" s="135"/>
+      <c r="B95" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C95" s="116">
+      <c r="C95" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A95,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="117"/>
-      <c r="B96" s="115" t="str">
+      <c r="A96" s="135"/>
+      <c r="B96" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C96" s="116">
+      <c r="C96" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A96,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="117"/>
-      <c r="B97" s="115" t="str">
+      <c r="A97" s="135"/>
+      <c r="B97" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C97" s="116">
+      <c r="C97" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A97,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="117"/>
-      <c r="B98" s="115" t="str">
+      <c r="A98" s="135"/>
+      <c r="B98" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C98" s="116">
+      <c r="C98" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A98,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="117"/>
-      <c r="B99" s="115" t="str">
+      <c r="A99" s="135"/>
+      <c r="B99" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C99" s="116">
+      <c r="C99" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A99,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="117"/>
-      <c r="B100" s="115" t="str">
+      <c r="A100" s="135"/>
+      <c r="B100" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C100" s="116">
+      <c r="C100" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A100,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="117"/>
-      <c r="B101" s="115" t="str">
+      <c r="A101" s="135"/>
+      <c r="B101" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C101" s="116">
+      <c r="C101" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A101,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="117"/>
-      <c r="B102" s="115" t="str">
+      <c r="A102" s="135"/>
+      <c r="B102" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C102" s="116">
+      <c r="C102" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A102,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="117"/>
-      <c r="B103" s="115" t="str">
+      <c r="A103" s="135"/>
+      <c r="B103" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C103" s="116">
+      <c r="C103" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A103,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="117"/>
-      <c r="B104" s="115" t="str">
+      <c r="A104" s="135"/>
+      <c r="B104" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C104" s="116">
+      <c r="C104" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A104,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="117"/>
-      <c r="B105" s="115" t="str">
+      <c r="A105" s="135"/>
+      <c r="B105" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C105" s="116">
+      <c r="C105" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A105,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="117"/>
-      <c r="B106" s="115" t="str">
+      <c r="A106" s="135"/>
+      <c r="B106" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C106" s="116">
+      <c r="C106" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A106,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="117"/>
-      <c r="B107" s="115" t="str">
+      <c r="A107" s="135"/>
+      <c r="B107" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C107" s="116">
+      <c r="C107" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A107,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="117"/>
-      <c r="B108" s="115" t="str">
+      <c r="A108" s="135"/>
+      <c r="B108" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C108" s="116">
+      <c r="C108" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A108,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="117"/>
-      <c r="B109" s="115" t="str">
+      <c r="A109" s="135"/>
+      <c r="B109" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C109" s="116">
+      <c r="C109" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A109,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="117"/>
-      <c r="B110" s="115" t="str">
+      <c r="A110" s="135"/>
+      <c r="B110" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C110" s="116">
+      <c r="C110" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A110,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="117"/>
-      <c r="B111" s="115" t="str">
+      <c r="A111" s="135"/>
+      <c r="B111" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C111" s="116">
+      <c r="C111" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A111,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="117"/>
-      <c r="B112" s="115" t="str">
+      <c r="A112" s="135"/>
+      <c r="B112" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C112" s="116">
+      <c r="C112" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A112,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="117"/>
-      <c r="B113" s="115" t="str">
+      <c r="A113" s="135"/>
+      <c r="B113" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C113" s="116">
+      <c r="C113" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A113,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="117"/>
-      <c r="B114" s="115" t="str">
+      <c r="A114" s="135"/>
+      <c r="B114" s="133" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C114" s="116">
+      <c r="C114" s="134">
         <f>SUMIF(Journal[date],SommeParJours!A114,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="117"/>
-      <c r="B115" s="117"/>
-      <c r="C115" s="116"/>
+      <c r="A115" s="135"/>
+      <c r="B115" s="135"/>
+      <c r="C115" s="134"/>
     </row>
     <row r="116">
-      <c r="A116" s="117"/>
-      <c r="B116" s="117"/>
-      <c r="C116" s="116"/>
+      <c r="A116" s="135"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="134"/>
     </row>
     <row r="117">
-      <c r="A117" s="117"/>
-      <c r="B117" s="117"/>
-      <c r="C117" s="116"/>
+      <c r="A117" s="135"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="134"/>
     </row>
     <row r="118">
-      <c r="A118" s="117"/>
-      <c r="B118" s="117"/>
-      <c r="C118" s="116"/>
+      <c r="A118" s="135"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="134"/>
     </row>
     <row r="119">
-      <c r="A119" s="117"/>
-      <c r="B119" s="117"/>
-      <c r="C119" s="116"/>
+      <c r="A119" s="135"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="134"/>
     </row>
     <row r="120">
-      <c r="A120" s="117"/>
-      <c r="B120" s="117"/>
-      <c r="C120" s="116"/>
+      <c r="A120" s="135"/>
+      <c r="B120" s="135"/>
+      <c r="C120" s="134"/>
     </row>
     <row r="121">
-      <c r="A121" s="117"/>
-      <c r="B121" s="117"/>
-      <c r="C121" s="116"/>
+      <c r="A121" s="135"/>
+      <c r="B121" s="135"/>
+      <c r="C121" s="134"/>
     </row>
     <row r="122">
-      <c r="A122" s="117"/>
-      <c r="B122" s="117"/>
-      <c r="C122" s="116"/>
+      <c r="A122" s="135"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="134"/>
     </row>
     <row r="123">
-      <c r="A123" s="117"/>
-      <c r="B123" s="117"/>
-      <c r="C123" s="116"/>
+      <c r="A123" s="135"/>
+      <c r="B123" s="135"/>
+      <c r="C123" s="134"/>
     </row>
     <row r="124">
-      <c r="A124" s="117"/>
-      <c r="B124" s="117"/>
-      <c r="C124" s="116"/>
+      <c r="A124" s="135"/>
+      <c r="B124" s="135"/>
+      <c r="C124" s="134"/>
     </row>
     <row r="125">
-      <c r="A125" s="117"/>
-      <c r="B125" s="117"/>
-      <c r="C125" s="116"/>
+      <c r="A125" s="135"/>
+      <c r="B125" s="135"/>
+      <c r="C125" s="134"/>
     </row>
     <row r="126">
-      <c r="A126" s="117"/>
-      <c r="B126" s="117"/>
-      <c r="C126" s="116"/>
+      <c r="A126" s="135"/>
+      <c r="B126" s="135"/>
+      <c r="C126" s="134"/>
     </row>
     <row r="127">
-      <c r="A127" s="117"/>
-      <c r="B127" s="117"/>
-      <c r="C127" s="116"/>
+      <c r="A127" s="135"/>
+      <c r="B127" s="135"/>
+      <c r="C127" s="134"/>
     </row>
     <row r="128">
-      <c r="A128" s="117"/>
-      <c r="B128" s="117"/>
-      <c r="C128" s="116"/>
+      <c r="A128" s="135"/>
+      <c r="B128" s="135"/>
+      <c r="C128" s="134"/>
     </row>
     <row r="129">
-      <c r="A129" s="117"/>
-      <c r="B129" s="117"/>
-      <c r="C129" s="116"/>
+      <c r="A129" s="135"/>
+      <c r="B129" s="135"/>
+      <c r="C129" s="134"/>
     </row>
     <row r="130">
-      <c r="A130" s="117"/>
-      <c r="B130" s="117"/>
-      <c r="C130" s="116"/>
+      <c r="A130" s="135"/>
+      <c r="B130" s="135"/>
+      <c r="C130" s="134"/>
     </row>
     <row r="131">
-      <c r="A131" s="117"/>
-      <c r="B131" s="117"/>
-      <c r="C131" s="116"/>
+      <c r="A131" s="135"/>
+      <c r="B131" s="135"/>
+      <c r="C131" s="134"/>
     </row>
     <row r="132">
-      <c r="A132" s="117"/>
-      <c r="B132" s="117"/>
-      <c r="C132" s="116"/>
+      <c r="A132" s="135"/>
+      <c r="B132" s="135"/>
+      <c r="C132" s="134"/>
     </row>
     <row r="133">
-      <c r="A133" s="117"/>
-      <c r="B133" s="117"/>
-      <c r="C133" s="116"/>
+      <c r="A133" s="135"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="134"/>
     </row>
     <row r="134">
-      <c r="A134" s="117"/>
-      <c r="B134" s="117"/>
-      <c r="C134" s="116"/>
+      <c r="A134" s="135"/>
+      <c r="B134" s="135"/>
+      <c r="C134" s="134"/>
     </row>
     <row r="135">
-      <c r="A135" s="117"/>
-      <c r="B135" s="117"/>
-      <c r="C135" s="116"/>
+      <c r="A135" s="135"/>
+      <c r="B135" s="135"/>
+      <c r="C135" s="134"/>
     </row>
     <row r="136">
-      <c r="A136" s="117"/>
-      <c r="B136" s="117"/>
-      <c r="C136" s="116"/>
+      <c r="A136" s="135"/>
+      <c r="B136" s="135"/>
+      <c r="C136" s="134"/>
     </row>
     <row r="137">
-      <c r="A137" s="117"/>
-      <c r="B137" s="117"/>
-      <c r="C137" s="116"/>
+      <c r="A137" s="135"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="134"/>
     </row>
     <row r="138">
-      <c r="A138" s="117"/>
-      <c r="B138" s="117"/>
-      <c r="C138" s="116"/>
+      <c r="A138" s="135"/>
+      <c r="B138" s="135"/>
+      <c r="C138" s="134"/>
     </row>
     <row r="139">
-      <c r="A139" s="117"/>
-      <c r="B139" s="117"/>
-      <c r="C139" s="116"/>
+      <c r="A139" s="135"/>
+      <c r="B139" s="135"/>
+      <c r="C139" s="134"/>
     </row>
     <row r="140">
-      <c r="A140" s="117"/>
-      <c r="B140" s="117"/>
-      <c r="C140" s="116"/>
+      <c r="A140" s="135"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="134"/>
     </row>
     <row r="141">
-      <c r="A141" s="117"/>
-      <c r="B141" s="117"/>
-      <c r="C141" s="116"/>
+      <c r="A141" s="135"/>
+      <c r="B141" s="135"/>
+      <c r="C141" s="134"/>
     </row>
     <row r="142">
-      <c r="A142" s="117"/>
-      <c r="B142" s="117"/>
-      <c r="C142" s="116"/>
+      <c r="A142" s="135"/>
+      <c r="B142" s="135"/>
+      <c r="C142" s="134"/>
     </row>
     <row r="143">
-      <c r="A143" s="117"/>
-      <c r="B143" s="117"/>
-      <c r="C143" s="116"/>
+      <c r="A143" s="135"/>
+      <c r="B143" s="135"/>
+      <c r="C143" s="134"/>
     </row>
     <row r="144">
-      <c r="A144" s="117"/>
-      <c r="B144" s="117"/>
-      <c r="C144" s="116"/>
+      <c r="A144" s="135"/>
+      <c r="B144" s="135"/>
+      <c r="C144" s="134"/>
     </row>
     <row r="145">
-      <c r="A145" s="117"/>
-      <c r="B145" s="117"/>
-      <c r="C145" s="116"/>
+      <c r="A145" s="135"/>
+      <c r="B145" s="135"/>
+      <c r="C145" s="134"/>
     </row>
     <row r="146">
-      <c r="A146" s="117"/>
-      <c r="B146" s="117"/>
-      <c r="C146" s="116"/>
+      <c r="A146" s="135"/>
+      <c r="B146" s="135"/>
+      <c r="C146" s="134"/>
     </row>
     <row r="147">
-      <c r="A147" s="117"/>
-      <c r="B147" s="117"/>
-      <c r="C147" s="116"/>
+      <c r="A147" s="135"/>
+      <c r="B147" s="135"/>
+      <c r="C147" s="134"/>
     </row>
     <row r="148">
-      <c r="A148" s="117"/>
-      <c r="B148" s="117"/>
-      <c r="C148" s="116"/>
+      <c r="A148" s="135"/>
+      <c r="B148" s="135"/>
+      <c r="C148" s="134"/>
     </row>
     <row r="149">
-      <c r="A149" s="117"/>
-      <c r="B149" s="117"/>
-      <c r="C149" s="116"/>
+      <c r="A149" s="135"/>
+      <c r="B149" s="135"/>
+      <c r="C149" s="134"/>
     </row>
     <row r="150">
-      <c r="A150" s="117"/>
-      <c r="B150" s="117"/>
-      <c r="C150" s="116"/>
+      <c r="A150" s="135"/>
+      <c r="B150" s="135"/>
+      <c r="C150" s="134"/>
     </row>
     <row r="151">
-      <c r="A151" s="117"/>
-      <c r="B151" s="117"/>
-      <c r="C151" s="116"/>
+      <c r="A151" s="135"/>
+      <c r="B151" s="135"/>
+      <c r="C151" s="134"/>
     </row>
     <row r="152">
-      <c r="A152" s="117"/>
-      <c r="B152" s="117"/>
-      <c r="C152" s="116"/>
+      <c r="A152" s="135"/>
+      <c r="B152" s="135"/>
+      <c r="C152" s="134"/>
     </row>
     <row r="153">
-      <c r="A153" s="117"/>
-      <c r="B153" s="117"/>
-      <c r="C153" s="116"/>
+      <c r="A153" s="135"/>
+      <c r="B153" s="135"/>
+      <c r="C153" s="134"/>
     </row>
     <row r="154">
-      <c r="A154" s="117"/>
-      <c r="B154" s="117"/>
-      <c r="C154" s="116"/>
+      <c r="A154" s="135"/>
+      <c r="B154" s="135"/>
+      <c r="C154" s="134"/>
     </row>
     <row r="155">
-      <c r="A155" s="117"/>
-      <c r="B155" s="117"/>
-      <c r="C155" s="116"/>
+      <c r="A155" s="135"/>
+      <c r="B155" s="135"/>
+      <c r="C155" s="134"/>
     </row>
     <row r="156">
-      <c r="A156" s="117"/>
-      <c r="B156" s="117"/>
-      <c r="C156" s="116"/>
+      <c r="A156" s="135"/>
+      <c r="B156" s="135"/>
+      <c r="C156" s="134"/>
     </row>
     <row r="157">
-      <c r="A157" s="117"/>
-      <c r="B157" s="117"/>
-      <c r="C157" s="116"/>
+      <c r="A157" s="135"/>
+      <c r="B157" s="135"/>
+      <c r="C157" s="134"/>
     </row>
     <row r="158">
-      <c r="A158" s="117"/>
-      <c r="B158" s="117"/>
-      <c r="C158" s="116"/>
+      <c r="A158" s="135"/>
+      <c r="B158" s="135"/>
+      <c r="C158" s="134"/>
     </row>
     <row r="159">
-      <c r="A159" s="117"/>
-      <c r="B159" s="117"/>
+      <c r="A159" s="135"/>
+      <c r="B159" s="135"/>
     </row>
     <row r="160">
-      <c r="A160" s="117"/>
-      <c r="B160" s="117"/>
+      <c r="A160" s="135"/>
+      <c r="B160" s="135"/>
     </row>
     <row r="161">
-      <c r="A161" s="117"/>
-      <c r="B161" s="117"/>
+      <c r="A161" s="135"/>
+      <c r="B161" s="135"/>
     </row>
     <row r="162">
-      <c r="A162" s="117"/>
-      <c r="B162" s="117"/>
+      <c r="A162" s="135"/>
+      <c r="B162" s="135"/>
     </row>
     <row r="163">
-      <c r="A163" s="117"/>
-      <c r="B163" s="117"/>
+      <c r="A163" s="135"/>
+      <c r="B163" s="135"/>
     </row>
     <row r="164">
-      <c r="A164" s="117"/>
-      <c r="B164" s="117"/>
+      <c r="A164" s="135"/>
+      <c r="B164" s="135"/>
     </row>
     <row r="165">
-      <c r="A165" s="117"/>
-      <c r="B165" s="117"/>
+      <c r="A165" s="135"/>
+      <c r="B165" s="135"/>
     </row>
     <row r="166">
-      <c r="A166" s="117"/>
-      <c r="B166" s="117"/>
+      <c r="A166" s="135"/>
+      <c r="B166" s="135"/>
     </row>
     <row r="167">
-      <c r="A167" s="117"/>
-      <c r="B167" s="117"/>
+      <c r="A167" s="135"/>
+      <c r="B167" s="135"/>
     </row>
     <row r="168">
-      <c r="A168" s="117"/>
-      <c r="B168" s="117"/>
+      <c r="A168" s="135"/>
+      <c r="B168" s="135"/>
     </row>
     <row r="169">
-      <c r="A169" s="117"/>
-      <c r="B169" s="117"/>
+      <c r="A169" s="135"/>
+      <c r="B169" s="135"/>
     </row>
     <row r="170">
-      <c r="A170" s="117"/>
-      <c r="B170" s="117"/>
+      <c r="A170" s="135"/>
+      <c r="B170" s="135"/>
     </row>
     <row r="171">
-      <c r="A171" s="117"/>
-      <c r="B171" s="117"/>
+      <c r="A171" s="135"/>
+      <c r="B171" s="135"/>
     </row>
     <row r="172">
-      <c r="A172" s="117"/>
-      <c r="B172" s="117"/>
+      <c r="A172" s="135"/>
+      <c r="B172" s="135"/>
     </row>
     <row r="173">
-      <c r="A173" s="117"/>
-      <c r="B173" s="117"/>
+      <c r="A173" s="135"/>
+      <c r="B173" s="135"/>
     </row>
     <row r="174">
-      <c r="A174" s="117"/>
-      <c r="B174" s="117"/>
+      <c r="A174" s="135"/>
+      <c r="B174" s="135"/>
     </row>
     <row r="175">
-      <c r="A175" s="117"/>
-      <c r="B175" s="117"/>
+      <c r="A175" s="135"/>
+      <c r="B175" s="135"/>
     </row>
     <row r="176">
-      <c r="A176" s="117"/>
-      <c r="B176" s="117"/>
+      <c r="A176" s="135"/>
+      <c r="B176" s="135"/>
     </row>
     <row r="177">
-      <c r="A177" s="117"/>
-      <c r="B177" s="117"/>
+      <c r="A177" s="135"/>
+      <c r="B177" s="135"/>
     </row>
     <row r="178">
-      <c r="A178" s="117"/>
-      <c r="B178" s="117"/>
+      <c r="A178" s="135"/>
+      <c r="B178" s="135"/>
     </row>
     <row r="179">
-      <c r="A179" s="117"/>
-      <c r="B179" s="117"/>
+      <c r="A179" s="135"/>
+      <c r="B179" s="135"/>
     </row>
     <row r="180">
-      <c r="A180" s="117"/>
-      <c r="B180" s="117"/>
+      <c r="A180" s="135"/>
+      <c r="B180" s="135"/>
     </row>
     <row r="181">
-      <c r="A181" s="117"/>
-      <c r="B181" s="117"/>
+      <c r="A181" s="135"/>
+      <c r="B181" s="135"/>
     </row>
     <row r="182">
-      <c r="A182" s="117"/>
-      <c r="B182" s="117"/>
+      <c r="A182" s="135"/>
+      <c r="B182" s="135"/>
     </row>
     <row r="183">
-      <c r="A183" s="117"/>
-      <c r="B183" s="117"/>
+      <c r="A183" s="135"/>
+      <c r="B183" s="135"/>
     </row>
     <row r="184">
-      <c r="A184" s="117"/>
-      <c r="B184" s="117"/>
+      <c r="A184" s="135"/>
+      <c r="B184" s="135"/>
     </row>
     <row r="185">
-      <c r="A185" s="117"/>
-      <c r="B185" s="117"/>
+      <c r="A185" s="135"/>
+      <c r="B185" s="135"/>
     </row>
     <row r="186">
-      <c r="A186" s="117"/>
-      <c r="B186" s="117"/>
+      <c r="A186" s="135"/>
+      <c r="B186" s="135"/>
     </row>
     <row r="187">
-      <c r="A187" s="117"/>
-      <c r="B187" s="117"/>
+      <c r="A187" s="135"/>
+      <c r="B187" s="135"/>
     </row>
     <row r="188">
-      <c r="A188" s="117"/>
-      <c r="B188" s="117"/>
+      <c r="A188" s="135"/>
+      <c r="B188" s="135"/>
     </row>
     <row r="189">
-      <c r="A189" s="117"/>
-      <c r="B189" s="117"/>
+      <c r="A189" s="135"/>
+      <c r="B189" s="135"/>
     </row>
     <row r="190">
-      <c r="A190" s="117"/>
-      <c r="B190" s="117"/>
+      <c r="A190" s="135"/>
+      <c r="B190" s="135"/>
     </row>
     <row r="191">
-      <c r="A191" s="117"/>
-      <c r="B191" s="117"/>
+      <c r="A191" s="135"/>
+      <c r="B191" s="135"/>
     </row>
     <row r="192">
-      <c r="A192" s="117"/>
-      <c r="B192" s="117"/>
+      <c r="A192" s="135"/>
+      <c r="B192" s="135"/>
     </row>
     <row r="193">
-      <c r="A193" s="117"/>
-      <c r="B193" s="117"/>
+      <c r="A193" s="135"/>
+      <c r="B193" s="135"/>
     </row>
     <row r="194">
-      <c r="A194" s="117"/>
-      <c r="B194" s="117"/>
+      <c r="A194" s="135"/>
+      <c r="B194" s="135"/>
     </row>
     <row r="195">
-      <c r="A195" s="117"/>
-      <c r="B195" s="117"/>
+      <c r="A195" s="135"/>
+      <c r="B195" s="135"/>
     </row>
     <row r="196">
-      <c r="A196" s="117"/>
-      <c r="B196" s="117"/>
+      <c r="A196" s="135"/>
+      <c r="B196" s="135"/>
     </row>
     <row r="197">
-      <c r="A197" s="117"/>
-      <c r="B197" s="117"/>
+      <c r="A197" s="135"/>
+      <c r="B197" s="135"/>
     </row>
     <row r="198">
-      <c r="A198" s="117"/>
-      <c r="B198" s="117"/>
+      <c r="A198" s="135"/>
+      <c r="B198" s="135"/>
     </row>
     <row r="199">
-      <c r="A199" s="117"/>
-      <c r="B199" s="117"/>
+      <c r="A199" s="135"/>
+      <c r="B199" s="135"/>
     </row>
     <row r="200">
-      <c r="A200" s="117"/>
-      <c r="B200" s="117"/>
+      <c r="A200" s="135"/>
+      <c r="B200" s="135"/>
     </row>
     <row r="201">
-      <c r="A201" s="117"/>
-      <c r="B201" s="117"/>
+      <c r="A201" s="135"/>
+      <c r="B201" s="135"/>
     </row>
     <row r="202">
-      <c r="A202" s="117"/>
-      <c r="B202" s="117"/>
+      <c r="A202" s="135"/>
+      <c r="B202" s="135"/>
     </row>
     <row r="203">
-      <c r="A203" s="117"/>
-      <c r="B203" s="117"/>
+      <c r="A203" s="135"/>
+      <c r="B203" s="135"/>
     </row>
     <row r="204">
-      <c r="A204" s="117"/>
-      <c r="B204" s="117"/>
+      <c r="A204" s="135"/>
+      <c r="B204" s="135"/>
     </row>
     <row r="205">
-      <c r="A205" s="117"/>
-      <c r="B205" s="117"/>
+      <c r="A205" s="135"/>
+      <c r="B205" s="135"/>
     </row>
     <row r="206">
-      <c r="A206" s="117"/>
-      <c r="B206" s="117"/>
+      <c r="A206" s="135"/>
+      <c r="B206" s="135"/>
     </row>
     <row r="207">
-      <c r="A207" s="117"/>
-      <c r="B207" s="117"/>
+      <c r="A207" s="135"/>
+      <c r="B207" s="135"/>
     </row>
     <row r="208">
-      <c r="A208" s="117"/>
-      <c r="B208" s="117"/>
+      <c r="A208" s="135"/>
+      <c r="B208" s="135"/>
     </row>
     <row r="209">
-      <c r="A209" s="117"/>
-      <c r="B209" s="117"/>
+      <c r="A209" s="135"/>
+      <c r="B209" s="135"/>
     </row>
     <row r="210">
-      <c r="A210" s="117"/>
-      <c r="B210" s="117"/>
+      <c r="A210" s="135"/>
+      <c r="B210" s="135"/>
     </row>
     <row r="211">
-      <c r="A211" s="117"/>
-      <c r="B211" s="117"/>
+      <c r="A211" s="135"/>
+      <c r="B211" s="135"/>
     </row>
     <row r="212">
-      <c r="A212" s="117"/>
-      <c r="B212" s="117"/>
+      <c r="A212" s="135"/>
+      <c r="B212" s="135"/>
     </row>
     <row r="213">
-      <c r="A213" s="117"/>
-      <c r="B213" s="117"/>
+      <c r="A213" s="135"/>
+      <c r="B213" s="135"/>
     </row>
     <row r="214">
-      <c r="A214" s="117"/>
-      <c r="B214" s="117"/>
+      <c r="A214" s="135"/>
+      <c r="B214" s="135"/>
     </row>
     <row r="215">
-      <c r="A215" s="117"/>
-      <c r="B215" s="117"/>
+      <c r="A215" s="135"/>
+      <c r="B215" s="135"/>
     </row>
     <row r="216">
-      <c r="A216" s="117"/>
-      <c r="B216" s="117"/>
+      <c r="A216" s="135"/>
+      <c r="B216" s="135"/>
     </row>
     <row r="217">
-      <c r="A217" s="117"/>
-      <c r="B217" s="117"/>
+      <c r="A217" s="135"/>
+      <c r="B217" s="135"/>
     </row>
     <row r="218">
-      <c r="A218" s="117"/>
-      <c r="B218" s="117"/>
+      <c r="A218" s="135"/>
+      <c r="B218" s="135"/>
     </row>
     <row r="219">
-      <c r="A219" s="117"/>
-      <c r="B219" s="117"/>
+      <c r="A219" s="135"/>
+      <c r="B219" s="135"/>
     </row>
     <row r="220">
-      <c r="A220" s="117"/>
-      <c r="B220" s="117"/>
+      <c r="A220" s="135"/>
+      <c r="B220" s="135"/>
     </row>
     <row r="221">
-      <c r="A221" s="117"/>
-      <c r="B221" s="117"/>
+      <c r="A221" s="135"/>
+      <c r="B221" s="135"/>
     </row>
     <row r="222">
-      <c r="A222" s="117"/>
-      <c r="B222" s="117"/>
+      <c r="A222" s="135"/>
+      <c r="B222" s="135"/>
     </row>
     <row r="223">
-      <c r="A223" s="117"/>
-      <c r="B223" s="117"/>
+      <c r="A223" s="135"/>
+      <c r="B223" s="135"/>
     </row>
     <row r="224">
-      <c r="A224" s="117"/>
-      <c r="B224" s="117"/>
+      <c r="A224" s="135"/>
+      <c r="B224" s="135"/>
     </row>
     <row r="225">
-      <c r="A225" s="117"/>
-      <c r="B225" s="117"/>
+      <c r="A225" s="135"/>
+      <c r="B225" s="135"/>
     </row>
     <row r="226">
-      <c r="A226" s="117"/>
-      <c r="B226" s="117"/>
+      <c r="A226" s="135"/>
+      <c r="B226" s="135"/>
     </row>
     <row r="227">
-      <c r="A227" s="117"/>
-      <c r="B227" s="117"/>
+      <c r="A227" s="135"/>
+      <c r="B227" s="135"/>
     </row>
     <row r="228">
-      <c r="A228" s="117"/>
-      <c r="B228" s="117"/>
+      <c r="A228" s="135"/>
+      <c r="B228" s="135"/>
     </row>
     <row r="229">
-      <c r="A229" s="117"/>
-      <c r="B229" s="117"/>
+      <c r="A229" s="135"/>
+      <c r="B229" s="135"/>
     </row>
     <row r="230">
-      <c r="A230" s="117"/>
-      <c r="B230" s="117"/>
+      <c r="A230" s="135"/>
+      <c r="B230" s="135"/>
     </row>
     <row r="231">
-      <c r="A231" s="117"/>
-      <c r="B231" s="117"/>
+      <c r="A231" s="135"/>
+      <c r="B231" s="135"/>
     </row>
     <row r="232">
-      <c r="A232" s="117"/>
-      <c r="B232" s="117"/>
+      <c r="A232" s="135"/>
+      <c r="B232" s="135"/>
     </row>
     <row r="233">
-      <c r="A233" s="117"/>
-      <c r="B233" s="117"/>
+      <c r="A233" s="135"/>
+      <c r="B233" s="135"/>
     </row>
     <row r="234">
-      <c r="A234" s="117"/>
-      <c r="B234" s="117"/>
+      <c r="A234" s="135"/>
+      <c r="B234" s="135"/>
     </row>
     <row r="235">
-      <c r="A235" s="117"/>
-      <c r="B235" s="117"/>
+      <c r="A235" s="135"/>
+      <c r="B235" s="135"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Documentation/HoferL-Journal&Planif-M5.xlsx
+++ b/Documentation/HoferL-Journal&Planif-M5.xlsx
@@ -1,29 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\ScholarLog\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE622A-572B-42E4-952B-67F0D6ACBEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Journal" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Journal" sheetId="1" r:id="rId1"/>
     <sheet name="Graphique" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Plannification" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PlanificationExemple" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Plannification" sheetId="3" r:id="rId3"/>
+    <sheet name="PlanificationExemple" sheetId="4" r:id="rId4"/>
     <sheet name="SommeParJours" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$B$2:$H$30</definedName>
   </definedNames>
-  <calcPr concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -31,7 +48,7 @@
     <t>Temps</t>
   </si>
   <si>
-    <t xml:space="preserve">type de travail</t>
+    <t>type de travail</t>
   </si>
   <si>
     <t>description</t>
@@ -46,13 +63,13 @@
     <t>Cours</t>
   </si>
   <si>
-    <t xml:space="preserve">Introduction au module 5. Prise de notes.</t>
+    <t>Introduction au module 5. Prise de notes.</t>
   </si>
   <si>
     <t>Recherche</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche d'idée de projet.</t>
+    <t>Recherche d'idée de projet.</t>
   </si>
   <si>
     <t>Plannification</t>
@@ -64,28 +81,28 @@
     <t>Documentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Création du cahier des charge, validation avec responsable du module. Création de la documentation technique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recherche et configuration de solution GitHub. Clés SSH.</t>
+    <t>Création du cahier des charge, validation avec responsable du module. Création de la documentation technique.</t>
+  </si>
+  <si>
+    <t>Recherche et configuration de solution GitHub. Clés SSH.</t>
   </si>
   <si>
     <t>Maquettage</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche d'une application pour faire une maquette</t>
+    <t>Recherche d'une application pour faire une maquette</t>
   </si>
   <si>
     <t>30.01.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Recherche d'une application pour faire une maquette + Lecture de la documentation de l'outil Penpot</t>
+    <t>Recherche d'une application pour faire une maquette + Lecture de la documentation de l'outil Penpot</t>
   </si>
   <si>
     <t>Programmation</t>
   </si>
   <si>
-    <t xml:space="preserve">Commencement de la maquette de l'application</t>
+    <t>Commencement de la maquette de l'application</t>
   </si>
   <si>
     <t>Tests</t>
@@ -94,16 +111,16 @@
     <t>03.02.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Finalisation de l'introduction du projet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajout de la licence du projet et ajout de l'interface dans le dépot GitHub</t>
+    <t>Finalisation de l'introduction du projet.</t>
+  </si>
+  <si>
+    <t>Ajout de la licence du projet et ajout de l'interface dans le dépot GitHub</t>
   </si>
   <si>
     <t>Présentation</t>
   </si>
   <si>
-    <t xml:space="preserve">Commencement de la plannification du projet</t>
+    <t>Commencement de la plannification du projet</t>
   </si>
   <si>
     <t>Somme</t>
@@ -148,7 +165,7 @@
     <t>10.03.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacances (16-20 fev.)</t>
+    <t>Vacances (16-20 fev.)</t>
   </si>
   <si>
     <t>23.02.2026</t>
@@ -178,7 +195,7 @@
     <t>31.03.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Vacances (6-18 avr.)</t>
+    <t>Vacances (6-18 avr.)</t>
   </si>
   <si>
     <t>20.04.2026</t>
@@ -199,7 +216,7 @@
     <t>12.05.2026</t>
   </si>
   <si>
-    <t xml:space="preserve">Absent (18-22 Mai)</t>
+    <t>Absent (18-22 Mai)</t>
   </si>
   <si>
     <t>26.05.2026</t>
@@ -238,74 +255,74 @@
     <t xml:space="preserve">10 semaines à 5 périodes  </t>
   </si>
   <si>
-    <t xml:space="preserve">Étude des besoins</t>
+    <t>Étude des besoins</t>
   </si>
   <si>
     <t xml:space="preserve">Organigramme </t>
   </si>
   <si>
-    <t xml:space="preserve">De octobre 2025 à janvier 2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Service réseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remise :  11.02.2026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Présentation : ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre de nœuds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remédiation : ?</t>
+    <t>De octobre 2025 à janvier 2026</t>
+  </si>
+  <si>
+    <t>Service réseau</t>
+  </si>
+  <si>
+    <t>Remise :  11.02.2026</t>
+  </si>
+  <si>
+    <t>Présentation : ?</t>
+  </si>
+  <si>
+    <t>Nombre de nœuds</t>
+  </si>
+  <si>
+    <t>Remédiation : ?</t>
   </si>
   <si>
     <t>Sécurité</t>
   </si>
   <si>
-    <t xml:space="preserve">Conception
+    <t>Conception
  Logique</t>
   </si>
   <si>
-    <t xml:space="preserve">Topologie logique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan d'adressage IPv4 et IPv6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planification du projet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse impl.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan physique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liste de matériels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise en place de la sécurité</t>
+    <t>Topologie logique</t>
+  </si>
+  <si>
+    <t>Plan d'adressage IPv4 et IPv6</t>
+  </si>
+  <si>
+    <t>Planification du projet</t>
+  </si>
+  <si>
+    <t>Analyse impl.</t>
+  </si>
+  <si>
+    <t>Plan physique</t>
+  </si>
+  <si>
+    <t>Liste de matériels</t>
+  </si>
+  <si>
+    <t>Mise en place de la sécurité</t>
   </si>
   <si>
     <t>Simulation</t>
   </si>
   <si>
-    <t xml:space="preserve">Création du réseau sur packet tracer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test du réseau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debug du réseau + checklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal de travail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préparation a la présentation</t>
+    <t>Création du réseau sur packet tracer</t>
+  </si>
+  <si>
+    <t>Test du réseau</t>
+  </si>
+  <si>
+    <t>Debug du réseau + checklist</t>
+  </si>
+  <si>
+    <t>Journal de travail</t>
+  </si>
+  <si>
+    <t>Préparation a la présentation</t>
   </si>
   <si>
     <t>Planifiée</t>
@@ -315,12 +332,15 @@
   </si>
   <si>
     <t>somme_no</t>
+  </si>
+  <si>
+    <t>Révision de la licence et des citation des ressources GPL3.0-Only parce que l'opensource c'est génial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
@@ -329,21 +349,21 @@
     <numFmt numFmtId="168" formatCode="d/m/yy;@"/>
     <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -358,7 +378,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -373,27 +394,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0"/>
-        <bgColor theme="4" tint="0"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="65">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -405,17 +426,17 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -424,32 +445,32 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
@@ -459,21 +480,21 @@
       <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -483,7 +504,7 @@
       <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -492,20 +513,20 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -514,9 +535,9 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -525,29 +546,29 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -559,8 +580,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -572,39 +593,39 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -613,11 +634,11 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -626,31 +647,31 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -662,19 +683,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -686,8 +707,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -699,19 +720,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -720,22 +741,22 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -744,11 +765,11 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -757,22 +778,22 @@
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDot">
@@ -781,18 +802,18 @@
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="mediumDashed">
@@ -801,9 +822,9 @@
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -818,18 +839,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -841,19 +862,19 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -865,8 +886,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -878,8 +899,8 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -894,18 +915,18 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -914,22 +935,22 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -938,11 +959,11 @@
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -951,11 +972,11 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -967,19 +988,19 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -991,8 +1012,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -1004,8 +1025,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1014,18 +1035,18 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -1034,9 +1055,9 @@
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -1045,20 +1066,20 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1073,18 +1094,18 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="none"/>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1093,22 +1114,22 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
-      <left style="none"/>
+      <left/>
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -1117,11 +1138,11 @@
       <right style="dashDotDot">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="dashDotDot">
@@ -1130,300 +1151,274 @@
       <right style="mediumDashed">
         <color auto="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="129">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="166" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="167" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="165" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="167" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="180" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="15" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="17" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="22" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="21" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="23" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="28" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="29" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="31" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="33" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="20" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="32" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="5" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="35" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="36" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="37" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="38" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="39" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="40" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="41" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="42" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="43" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="44" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="45" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="46" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="47" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="48" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="49" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="47" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="50" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="51" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="52" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="53" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="48" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="49" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="54" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="55" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="56" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="57" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="58" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="18" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="59" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="180" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="60" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="61" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="62" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="63" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="64" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="34" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="168" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="169" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
-      <alignment horizontal="left" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <numFmt numFmtId="167" formatCode="0.0&quot; H&quot;;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="1" relativeIndent="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="hh:mm;@"/>
-      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
-    </dxf>
-    <dxf>
-      <alignment indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0&quot; H&quot;;@"/>
-      <alignment horizontal="center" indent="0" readingOrder="0" relativeIndent="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="0"/>
+      <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1439,12 +1434,12 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1459,7 +1454,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" spc="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1483,12 +1478,12 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.378713"/>
-          <c:y val="0.034239"/>
+          <c:x val="0.37871300000000002"/>
+          <c:y val="3.4238999999999999E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1503,7 +1498,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" spc="0">
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1526,10 +1521,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.127313"/>
-          <c:y val="0.225088"/>
-          <c:w val="0.386530"/>
-          <c:h val="0.706953"/>
+          <c:x val="0.12731300000000001"/>
+          <c:y val="0.22508800000000001"/>
+          <c:w val="0.38652999999999998"/>
+          <c:h val="0.70695300000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -1565,6 +1560,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1583,6 +1583,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1601,6 +1606,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1619,27 +1629,103 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr bwMode="auto">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr bwMode="auto">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr bwMode="auto">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr bwMode="auto">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr bwMode="auto">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.020779"/>
-                  <c:y val="0.018288"/>
+                  <c:x val="-2.0778999999999999E-2"/>
+                  <c:y val="1.8287999999999999E-2"/>
                 </c:manualLayout>
               </c:layout>
-              <c:showBubbleSize val="0"/>
-              <c:showCatName val="0"/>
-              <c:showLegendKey val="0"/>
-              <c:showPercent val="0"/>
-              <c:showSerName val="0"/>
-              <c:showVal val="1"/>
-              <c:spPr bwMode="auto">
-                <a:prstGeom prst="rect">
-                  <a:avLst/>
-                </a:prstGeom>
+              <c:spPr>
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
@@ -1653,7 +1739,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="75000"/>
@@ -1668,19 +1754,31 @@
                   <a:endParaRPr lang="fr-FR"/>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showBubbleSize val="0"/>
-            <c:showCatName val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:showLegendKey val="0"/>
-            <c:showPercent val="0"/>
-            <c:showSerName val="0"/>
-            <c:showVal val="1"/>
-            <c:spPr bwMode="auto">
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
+            <c:spPr>
               <a:noFill/>
               <a:ln>
                 <a:noFill/>
@@ -1694,7 +1792,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1709,6 +1807,27 @@
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1716,16 +1835,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>Cours</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Plannification</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Recherche</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Documentation</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Packet Tracer</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>Présentation</c:v>
+                  <c:v>Maquettage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1735,36 +1854,56 @@
               <c:f>Journal!$H$3:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0" H";@</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>18.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.9999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7B5A-4DE1-B83B-465A6EDAE4DF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
           <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1784,7 +1923,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1805,13 +1944,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.697322"/>
-          <c:y val="0.306560"/>
-          <c:w val="0.285371"/>
-          <c:h val="0.446444"/>
+          <c:y val="0.30656"/>
+          <c:w val="0.28537099999999999"/>
+          <c:h val="0.44644400000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1826,7 +1965,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1847,7 +1986,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
-    <a:xfrm rot="0">
+    <a:xfrm>
       <a:off x="0" y="0"/>
       <a:ext cx="0" cy="0"/>
     </a:xfrm>
@@ -1880,19 +2019,19 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -1907,7 +2046,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1921,19 +2060,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Répartition</a:t>
+              <a:t>Répartition du nombre d'heure</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> du nombre d'heure</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -1948,7 +2081,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1971,10 +2104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.112660"/>
-          <c:y val="0.138910"/>
-          <c:w val="0.871560"/>
-          <c:h val="0.682290"/>
+          <c:x val="0.11266"/>
+          <c:y val="0.13891000000000001"/>
+          <c:w val="0.87156"/>
+          <c:h val="0.68228999999999995"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1987,6 +2120,12 @@
           <c:tx>
             <c:strRef>
               <c:f>SommeParJours!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>somme</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr bwMode="auto">
@@ -2003,24 +2142,134 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>SommeParJours!$A$2:$A$24</c:f>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.01.2026</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.01.2026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.01.2026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>03.02.2026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1.00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>SommeParJours!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29166666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20833333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92A6-47C2-8845-543876FDEA90}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:axId val="745490229"/>
@@ -2040,7 +2289,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2060,9 +2309,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2077,7 +2325,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2118,7 +2366,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2171,7 +2419,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2185,13 +2433,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CH" sz="900"/>
-                  <a:t>Nombre</a:t>
+                  <a:t>Nombre d'heures</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" sz="900"/>
-                  <a:t> d'heures</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2199,12 +2442,12 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.015660"/>
-              <c:y val="0.322490"/>
+              <c:x val="1.566E-2"/>
+              <c:y val="0.32249"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2219,7 +2462,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2239,7 +2482,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
+        <c:spPr>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -2254,7 +2497,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2273,7 +2516,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2290,14 +2533,14 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.014800"/>
-          <c:y val="0.925560"/>
-          <c:w val="0.158630"/>
-          <c:h val="0.062160"/>
+          <c:x val="1.4800000000000001E-2"/>
+          <c:y val="0.92556000000000005"/>
+          <c:w val="0.15862999999999999"/>
+          <c:h val="6.216E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2312,7 +2555,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2333,7 +2576,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
-    <a:xfrm rot="0">
+    <a:xfrm>
       <a:off x="1174749" y="293407"/>
       <a:ext cx="7662854" cy="3391085"/>
     </a:xfrm>
@@ -2366,19 +2609,19 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="c14">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2393,7 +2636,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2407,19 +2650,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Répartition</a:t>
+              <a:t>Répartition du nombre d'heure</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> du nombre d'heure</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2434,7 +2671,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2457,10 +2694,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.072978"/>
-          <c:y val="0.138914"/>
-          <c:w val="0.911258"/>
-          <c:h val="0.682299"/>
+          <c:x val="7.2978000000000001E-2"/>
+          <c:y val="0.13891400000000001"/>
+          <c:w val="0.91125800000000001"/>
+          <c:h val="0.68229899999999999"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2495,43 +2732,42 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>SommeParJours!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>d/m/yy;@</c:formatCode>
-                <c:ptCount val="13"/>
+              <c:strCache>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>45958</c:v>
+                  <c:v>20.01.2026</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45965</c:v>
+                  <c:v>27.01.2026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45972</c:v>
+                  <c:v>30.01.2026</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45974</c:v>
+                  <c:v>03.02.2026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45979</c:v>
+                  <c:v>3.2.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45986</c:v>
+                  <c:v>0.1.00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45993</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45995</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46000</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46007</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2543,31 +2779,31 @@
                   <c:v>0.16666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35416666666666663</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0625</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.20833333333333331</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2581,15 +2817,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64D8-495F-A0BC-424C1C96F90D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showCatName val="0"/>
-          <c:showLeaderLines val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showPercent val="0"/>
-          <c:showSerName val="0"/>
-          <c:showVal val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:axId val="745489864"/>
@@ -2609,7 +2849,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2629,9 +2869,8 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2646,7 +2885,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2687,7 +2926,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2740,7 +2979,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2754,13 +2993,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-CH" sz="900"/>
-                  <a:t>Nombre</a:t>
+                  <a:t>Nombre d'heures</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="fr-CH" sz="900"/>
-                  <a:t> d'heures</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-CH" sz="900"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2768,12 +3002,12 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.015668"/>
+              <c:x val="1.5668000000000001E-2"/>
               <c:y val="0.322494"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
-          <c:spPr bwMode="auto">
+          <c:spPr>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2788,7 +3022,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2808,7 +3042,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr bwMode="auto">
+        <c:spPr>
           <a:prstGeom prst="rect">
             <a:avLst/>
           </a:prstGeom>
@@ -2823,7 +3057,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2842,7 +3076,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2859,14 +3093,14 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.014809"/>
-          <c:y val="0.925561"/>
-          <c:w val="0.158631"/>
-          <c:h val="0.062167"/>
+          <c:x val="1.4808999999999999E-2"/>
+          <c:y val="0.92556099999999997"/>
+          <c:w val="0.15863099999999999"/>
+          <c:h val="6.2167E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
-      <c:spPr bwMode="auto">
+      <c:spPr>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2881,7 +3115,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2902,7 +3136,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
-    <a:xfrm rot="0">
+    <a:xfrm>
       <a:off x="0" y="0"/>
       <a:ext cx="0" cy="0"/>
     </a:xfrm>
@@ -2935,7 +3169,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3253,6 +3487,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3639,7 +3874,6 @@
       </a:ln>
     </cs:spPr>
   </cs:wall>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -3721,6 +3955,18 @@
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
@@ -3803,6 +4049,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4187,7 +4434,6 @@
       </a:ln>
     </cs:spPr>
   </cs:wall>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
@@ -4382,6 +4628,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -4766,13 +5013,12 @@
       </a:ln>
     </cs:spPr>
   </cs:wall>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>493058</xdr:colOff>
@@ -4785,14 +5031,20 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>161277</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
-      <xdr:xfrm rot="0">
+      <xdr:xfrm>
         <a:off x="0" y="0"/>
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
@@ -4804,7 +5056,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>412749</xdr:colOff>
@@ -4817,16 +5069,22 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>26892</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1871765076" name=""/>
+        <xdr:cNvPr id="1871765076" name="Graphique 1871765075">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054DE906F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
-      <xdr:xfrm rot="0">
-        <a:off x="1174749" y="293407"/>
-        <a:ext cx="7662854" cy="3391085"/>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4840,8 +5098,8 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
@@ -4854,14 +5112,20 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
-      <xdr:xfrm rot="0">
+      <xdr:xfrm>
         <a:off x="0" y="0"/>
         <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
@@ -4877,314 +5141,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Journal" ref="B2:E42">
-  <autoFilter ref="B2:E42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Journal" displayName="Journal" ref="B2:E42">
+  <autoFilter ref="B2:E42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="date" dataDxfId="0"/>
-    <tableColumn id="2" name="Temps" dataDxfId="1"/>
-    <tableColumn id="3" name="type de travail" dataDxfId="2"/>
-    <tableColumn id="4" name="description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="date" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Temps" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="type de travail" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="description" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="types" ref="G2:H12">
-  <autoFilter ref="G2:H12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="types" displayName="types" ref="G2:H12">
+  <autoFilter ref="G2:H12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="type de travail"/>
-    <tableColumn id="2" name="somme" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="type de travail"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="somme" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="New Office">
       <a:dk1>
@@ -5375,33 +5356,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
+  <dimension ref="B2:J78"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="11.33203125"/>
-    <col customWidth="1" min="3" max="3" width="7.6640625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="15.21875"/>
-    <col customWidth="1" min="5" max="5" width="46.5546875"/>
-    <col customWidth="1" min="6" max="6" width="2"/>
-    <col customWidth="1" min="7" max="7" width="17.28125"/>
-    <col customWidth="1" min="8" max="8" width="12.44140625"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" customWidth="1"/>
+    <col min="6" max="6" width="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -5421,7 +5402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5443,12 +5424,12 @@
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
@@ -5464,7 +5445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="42.75">
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -5485,17 +5466,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="28.5">
+    <row r="6" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>0.041666666666666664</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -5506,17 +5487,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="4">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="D7" s="12" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -5524,20 +5505,20 @@
       </c>
       <c r="H7" s="8">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
-        <v>5.9999999999999991</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5">
-      <c r="B8" s="11" t="s">
+        <v>6.9999999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4">
         <v>0.125</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
@@ -5548,8 +5529,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4">
@@ -5558,7 +5539,7 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
@@ -5569,17 +5550,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="4">
-        <v>0.083333333333333329</v>
-      </c>
-      <c r="D10" s="12" t="s">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G10" s="7"/>
@@ -5588,38 +5569,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="28.5">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="4">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="D11" s="12" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="11">
         <f>SUMIF(Journal[type de travail],types[[#This Row],[type de travail]],Journal[Temps])*24</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="15">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>26</v>
       </c>
       <c r="G12" t="s">
@@ -5627,1514 +5608,1483 @@
       </c>
       <c r="H12" s="8">
         <f>SUM(H3:H11)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>46056</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" ht="28.5">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" ht="28.5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" ht="28.5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" ht="28.5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" ht="28.5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="5"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25">
-      <c r="B25" s="15"/>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26">
-      <c r="B26" s="15"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27">
-      <c r="B27" s="15"/>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28">
-      <c r="B28" s="15"/>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29">
-      <c r="B29" s="15"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30">
-      <c r="B30" s="15"/>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31">
-      <c r="B31" s="15"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32">
-      <c r="B32" s="15"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33">
-      <c r="B33" s="15"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
       <c r="C33" s="4"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34">
-      <c r="B34" s="15"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35">
-      <c r="B35" s="15"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
       <c r="C35" s="4"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36">
-      <c r="B36" s="15"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37">
-      <c r="B37" s="15"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38">
-      <c r="B38" s="15"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39">
-      <c r="B39" s="15"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40">
-      <c r="B40" s="15"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41">
-      <c r="B41" s="15"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42">
-      <c r="B42" s="15"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43">
-      <c r="B43" s="15"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44">
-      <c r="B44" s="15"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45">
-      <c r="B45" s="15"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D23 D3:D12 D14:D18" xr:uid="{0060003B-00C6-4B37-A119-005200D8001F}">
+      <formula1>$G$3:$G$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0060003B-00C6-4B37-A119-005200D8001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>$G$3:$G$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D20:D23 D3:D12 D14:D18</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="11.5546875"/>
-    <col customWidth="1" min="11" max="11" width="15.109375"/>
+    <col min="2" max="3" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:AW57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" min="3" max="3" width="31.29296875"/>
-    <col customWidth="1" min="5" max="49" width="3.421875"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1"/>
+    <col min="5" max="49" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30.5" customHeight="1">
-      <c r="E1" s="16" t="s">
+    <row r="1" spans="2:49" ht="30.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="16" t="s">
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="17" t="s">
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17" t="s">
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="16" t="s">
+      <c r="AB1" s="108"/>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-    </row>
-    <row r="2" ht="98.5" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+    </row>
+    <row r="2" spans="2:49" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="27" t="s">
+      <c r="AE2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AF2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AG2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AH2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AJ2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="55" ht="14.25">
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-    </row>
-    <row r="56" ht="14.25">
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-    </row>
-    <row r="57" ht="14.25">
-      <c r="C57" s="32"/>
-      <c r="D57" s="34"/>
-    </row>
-    <row r="58" ht="14.25">
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="23"/>
+      <c r="D57" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
+  <dimension ref="B1:AD35"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.88671875"/>
-    <col customWidth="1" min="2" max="2" width="6.5546875"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="31.21875"/>
-    <col customWidth="1" min="4" max="4" width="3.33203125"/>
-    <col customWidth="1" min="5" max="19" width="4.33203125"/>
-    <col customWidth="1" min="20" max="20" width="3.21875"/>
-    <col customWidth="1" min="21" max="21" width="2.88671875"/>
-    <col customWidth="1" min="22" max="22" width="17.21875"/>
-    <col bestFit="1" customWidth="1" min="30" max="30" width="10.109375"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="5" max="19" width="4.33203125" customWidth="1"/>
+    <col min="20" max="20" width="3.21875" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
-      <c r="B1" s="35"/>
-    </row>
-    <row r="2" ht="56.399999999999999" customHeight="1">
-      <c r="B2" s="36" t="s">
+    <row r="1" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+    </row>
+    <row r="2" spans="2:30" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40" t="s">
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40" t="s">
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="40" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="41"/>
-      <c r="AD2" s="42"/>
-    </row>
-    <row r="3" ht="15">
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="S2" s="115"/>
+      <c r="AD2" s="28"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="110"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="30">
         <v>4</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="31">
         <v>1</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="32">
         <v>2</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="32">
         <v>3</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="30">
         <v>4</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="31">
         <v>1</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="32">
         <v>2</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="32">
         <v>3</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="30">
         <v>4</v>
       </c>
-      <c r="N3" s="47">
+      <c r="N3" s="31">
         <v>1</v>
       </c>
-      <c r="O3" s="48">
+      <c r="O3" s="32">
         <v>2</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="32">
         <v>3</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="30">
         <v>4</v>
       </c>
-      <c r="R3" s="47">
+      <c r="R3" s="31">
         <v>1</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="33">
         <v>2</v>
       </c>
       <c r="U3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" ht="12" customHeight="1">
-      <c r="B4" s="50" t="s">
+    <row r="4" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
       <c r="U4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" ht="12" customHeight="1">
-      <c r="B5" s="50"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="64"/>
-    </row>
-    <row r="6" ht="12" customHeight="1">
-      <c r="B6" s="50"/>
-      <c r="C6" s="65" t="s">
+    <row r="5" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
+      <c r="C5" s="118"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46"/>
+    </row>
+    <row r="6" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116"/>
+      <c r="C6" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="72"/>
-      <c r="U6" s="73" t="s">
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="53"/>
+      <c r="U6" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="V6" s="73"/>
-    </row>
-    <row r="7" ht="12" customHeight="1">
-      <c r="B7" s="50"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
+      <c r="V6" s="120"/>
+    </row>
+    <row r="7" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="46"/>
       <c r="U7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" ht="12" customHeight="1">
-      <c r="B8" s="50"/>
-      <c r="C8" s="65" t="s">
+    <row r="8" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="116"/>
+      <c r="C8" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="71"/>
-      <c r="S8" s="72"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="53"/>
       <c r="U8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" ht="12" customHeight="1">
-      <c r="B9" s="50"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="64"/>
-    </row>
-    <row r="10" ht="12" customHeight="1">
-      <c r="B10" s="50"/>
-      <c r="C10" s="65" t="s">
+    <row r="9" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="116"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="46"/>
+    </row>
+    <row r="10" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="116"/>
+      <c r="C10" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="72"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="81"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="B12" s="36" t="s">
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="53"/>
+    </row>
+    <row r="11" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="117"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="59"/>
+    </row>
+    <row r="12" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="109" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="56"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="B13" s="50"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="64"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="65" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="39"/>
+    </row>
+    <row r="13" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="116"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
+    </row>
+    <row r="14" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="116"/>
+      <c r="C14" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="84"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="64"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="B16" s="50"/>
-      <c r="C16" s="65" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="53"/>
+    </row>
+    <row r="15" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="116"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="46"/>
+    </row>
+    <row r="16" spans="2:30" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="116"/>
+      <c r="C16" s="119" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="81"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="B18" s="38" t="s">
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+    </row>
+    <row r="17" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="117"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="59"/>
+    </row>
+    <row r="18" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="111" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="56"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="63"/>
-      <c r="S19" s="64"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="B20" s="50"/>
-      <c r="C20" s="65" t="s">
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
+    </row>
+    <row r="19" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="116"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+    </row>
+    <row r="20" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="116"/>
+      <c r="C20" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="67"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="B21" s="50"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="88"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="63"/>
-      <c r="S21" s="64"/>
-    </row>
-    <row r="22" ht="12" customHeight="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="65" t="s">
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="53"/>
+    </row>
+    <row r="21" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="116"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="116"/>
+      <c r="C22" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
-    </row>
-    <row r="23" ht="12" customHeight="1">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="78"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="78"/>
-      <c r="S23" s="81"/>
-    </row>
-    <row r="24" ht="12" customHeight="1">
-      <c r="B24" s="38" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="53"/>
+    </row>
+    <row r="23" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="117"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="59"/>
+    </row>
+    <row r="24" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="122" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-    </row>
-    <row r="25" ht="12" customHeight="1">
-      <c r="B25" s="50"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="64"/>
-    </row>
-    <row r="26" ht="12" customHeight="1">
-      <c r="B26" s="50"/>
-      <c r="C26" s="65" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="39"/>
+    </row>
+    <row r="25" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="116"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+    </row>
+    <row r="26" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="116"/>
+      <c r="C26" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="69"/>
-      <c r="P26" s="69"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="72"/>
-    </row>
-    <row r="27" ht="12" customHeight="1">
-      <c r="B27" s="50"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="64"/>
-    </row>
-    <row r="28" ht="12" customHeight="1">
-      <c r="B28" s="50"/>
-      <c r="C28" s="65" t="s">
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="53"/>
+    </row>
+    <row r="27" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="116"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="46"/>
+    </row>
+    <row r="28" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="116"/>
+      <c r="C28" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="72"/>
-    </row>
-    <row r="29" ht="12" customHeight="1">
-      <c r="B29" s="50"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="95"/>
-    </row>
-    <row r="30" ht="12" customHeight="1">
-      <c r="B30" s="96" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="53"/>
+    </row>
+    <row r="29" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="116"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="73"/>
+    </row>
+    <row r="30" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="97" t="s">
+      <c r="C30" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="100"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="99"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="99"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="99"/>
-      <c r="S30" s="102"/>
-    </row>
-    <row r="31" ht="12" customHeight="1">
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="64"/>
-    </row>
-    <row r="32" ht="12" customHeight="1">
-      <c r="B32" s="103"/>
-      <c r="C32" s="104" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="75"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="75"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="78"/>
+    </row>
+    <row r="31" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="124"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="80"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="46"/>
+    </row>
+    <row r="32" spans="2:19" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="124"/>
+      <c r="C32" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="112"/>
-      <c r="P32" s="111"/>
-      <c r="Q32" s="113"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="114"/>
-    </row>
-    <row r="33" ht="12" customHeight="1">
-      <c r="B33" s="103"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="108"/>
-      <c r="R33" s="106"/>
-      <c r="S33" s="64"/>
-    </row>
-    <row r="34" ht="12" customHeight="1">
-      <c r="B34" s="103"/>
-      <c r="C34" s="57" t="s">
+      <c r="D32" s="47"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="88"/>
+    </row>
+    <row r="33" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="124"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="83"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="46"/>
+    </row>
+    <row r="34" spans="2:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="124"/>
+      <c r="C34" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="118"/>
-      <c r="G34" s="118"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="119"/>
-      <c r="P34" s="118"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="121"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="123" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="93"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="95"/>
+      <c r="U34" s="96"/>
+      <c r="V34" s="97" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" ht="13.800000000000001" customHeight="1">
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="127"/>
-      <c r="G35" s="127"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="127"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="127"/>
-      <c r="Q35" s="129"/>
-      <c r="R35" s="127"/>
-      <c r="S35" s="81"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="130" t="s">
+    <row r="35" spans="2:22" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="125"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="59"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="102" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -7143,1851 +7093,1843 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C235"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" style="131" width="11.5546875"/>
+    <col min="3" max="3" width="11.5546875" style="103"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="103" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="132">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="str">
         <f t="array" ref="A2:A11">_xlfn.UNIQUE(Journal[date])</f>
-        <v>45958</v>
-      </c>
-      <c r="B2" s="133">
+        <v>20.01.2026</v>
+      </c>
+      <c r="B2" s="105">
         <f t="shared" ref="B2:B65" si="0">IF(C2&gt;0,C2,"")</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C2" s="134">
+      <c r="C2" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A2,Journal[Temps])</f>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="132">
-        <f/>
-        <v>45965</v>
-      </c>
-      <c r="B3" s="133">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="104" t="str">
+        <v>27.01.2026</v>
+      </c>
+      <c r="B3" s="105">
         <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="C3" s="134">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C3" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A3,Journal[Temps])</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="132">
-        <f/>
-        <v>45972</v>
-      </c>
-      <c r="B4" s="133">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="str">
+        <v>30.01.2026</v>
+      </c>
+      <c r="B4" s="105">
         <f t="shared" si="0"/>
-        <v>0.35416666666666663</v>
-      </c>
-      <c r="C4" s="134">
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="C4" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A4,Journal[Temps])</f>
-        <v>0.35416666666666663</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="132">
-        <f/>
-        <v>45974</v>
-      </c>
-      <c r="B5" s="133">
+        <v>0.29166666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="104" t="str">
+        <v>03.02.2026</v>
+      </c>
+      <c r="B5" s="105">
         <f t="shared" si="0"/>
-        <v>0.0625</v>
-      </c>
-      <c r="C5" s="134">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C5" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A5,Journal[Temps])</f>
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="132">
-        <f/>
-        <v>45979</v>
-      </c>
-      <c r="B6" s="133">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="104">
+        <v>46056</v>
+      </c>
+      <c r="B6" s="105">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C6" s="134">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="C6" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A6,Journal[Temps])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="132">
-        <f/>
-        <v>45986</v>
-      </c>
-      <c r="B7" s="133">
+        <v>0.20833333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="104">
+        <v>0</v>
+      </c>
+      <c r="B7" s="105" t="str">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C7" s="134">
+        <v/>
+      </c>
+      <c r="C7" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A7,Journal[Temps])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="132">
-        <f/>
-        <v>45993</v>
-      </c>
-      <c r="B8" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B8" s="105" t="str">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C8" s="134">
+        <v/>
+      </c>
+      <c r="C8" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A8,Journal[Temps])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="132">
-        <f/>
-        <v>45995</v>
-      </c>
-      <c r="B9" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B9" s="105" t="str">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C9" s="134">
+        <v/>
+      </c>
+      <c r="C9" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A9,Journal[Temps])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="132">
-        <f/>
-        <v>46000</v>
-      </c>
-      <c r="B10" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B10" s="105" t="str">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C10" s="134">
+        <v/>
+      </c>
+      <c r="C10" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A10,Journal[Temps])</f>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="132">
-        <f/>
-        <v>46007</v>
-      </c>
-      <c r="B11" s="133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="104" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B11" s="105" t="str">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="C11" s="134">
+        <v/>
+      </c>
+      <c r="C11" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A11,Journal[Temps])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="132"/>
-      <c r="B12" s="133" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A12,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="132"/>
-      <c r="B13" s="133" t="str">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="104"/>
+      <c r="B13" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A13,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="132"/>
-      <c r="B14" s="133" t="str">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="104"/>
+      <c r="B14" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A14,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="132"/>
-      <c r="B15" s="133" t="str">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="104"/>
+      <c r="B15" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A15,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="132"/>
-      <c r="B16" s="133" t="str">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="104"/>
+      <c r="B16" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A16,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133" t="str">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="104"/>
+      <c r="B17" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A17,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="132"/>
-      <c r="B18" s="133" t="str">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="104"/>
+      <c r="B18" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A18,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="132"/>
-      <c r="B19" s="133" t="str">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="104"/>
+      <c r="B19" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A19,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="132"/>
-      <c r="B20" s="133" t="str">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="104"/>
+      <c r="B20" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A20,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="132"/>
-      <c r="B21" s="133" t="str">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="104"/>
+      <c r="B21" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A21,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="132"/>
-      <c r="B22" s="133" t="str">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="104"/>
+      <c r="B22" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A22,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="132"/>
-      <c r="B23" s="133" t="str">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="104"/>
+      <c r="B23" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="134">
+      <c r="C23" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A23,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="132"/>
-      <c r="B24" s="133" t="str">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="104"/>
+      <c r="B24" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A24,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="133" t="str">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="104"/>
+      <c r="B25" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C25" s="134">
+      <c r="C25" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A25,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="132"/>
-      <c r="B26" s="133" t="str">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="104"/>
+      <c r="B26" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A26,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="132"/>
-      <c r="B27" s="133" t="str">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="104"/>
+      <c r="B27" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C27" s="134">
+      <c r="C27" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A27,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="132"/>
-      <c r="B28" s="133" t="str">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="104"/>
+      <c r="B28" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C28" s="134">
+      <c r="C28" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A28,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133" t="str">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="104"/>
+      <c r="B29" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C29" s="134">
+      <c r="C29" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A29,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="132"/>
-      <c r="B30" s="133" t="str">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="104"/>
+      <c r="B30" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C30" s="134">
+      <c r="C30" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A30,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="132"/>
-      <c r="B31" s="133" t="str">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="104"/>
+      <c r="B31" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C31" s="134">
+      <c r="C31" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A31,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="132"/>
-      <c r="B32" s="133" t="str">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="104"/>
+      <c r="B32" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A32,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="132"/>
-      <c r="B33" s="133" t="str">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="104"/>
+      <c r="B33" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C33" s="134">
+      <c r="C33" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A33,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="132"/>
-      <c r="B34" s="133" t="str">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="104"/>
+      <c r="B34" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C34" s="134">
+      <c r="C34" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A34,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="132"/>
-      <c r="B35" s="133" t="str">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="104"/>
+      <c r="B35" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C35" s="134">
+      <c r="C35" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A35,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="132"/>
-      <c r="B36" s="133" t="str">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="104"/>
+      <c r="B36" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C36" s="134">
+      <c r="C36" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A36,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="132"/>
-      <c r="B37" s="133" t="str">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="104"/>
+      <c r="B37" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C37" s="134">
+      <c r="C37" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A37,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="132"/>
-      <c r="B38" s="133" t="str">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="104"/>
+      <c r="B38" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C38" s="134">
+      <c r="C38" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A38,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="135"/>
-      <c r="B39" s="133" t="str">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="107"/>
+      <c r="B39" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C39" s="134">
+      <c r="C39" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A39,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="135"/>
-      <c r="B40" s="133" t="str">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="107"/>
+      <c r="B40" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C40" s="134">
+      <c r="C40" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A40,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="135"/>
-      <c r="B41" s="133" t="str">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="107"/>
+      <c r="B41" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C41" s="134">
+      <c r="C41" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A41,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="135"/>
-      <c r="B42" s="133" t="str">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="107"/>
+      <c r="B42" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C42" s="134">
+      <c r="C42" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A42,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="135"/>
-      <c r="B43" s="133" t="str">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="107"/>
+      <c r="B43" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C43" s="134">
+      <c r="C43" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A43,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="135"/>
-      <c r="B44" s="133" t="str">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="107"/>
+      <c r="B44" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C44" s="134">
+      <c r="C44" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A44,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="135"/>
-      <c r="B45" s="133" t="str">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="107"/>
+      <c r="B45" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C45" s="134">
+      <c r="C45" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A45,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="135"/>
-      <c r="B46" s="133" t="str">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="107"/>
+      <c r="B46" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C46" s="134">
+      <c r="C46" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A46,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="135"/>
-      <c r="B47" s="133" t="str">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="107"/>
+      <c r="B47" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C47" s="134">
+      <c r="C47" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A47,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="135"/>
-      <c r="B48" s="133" t="str">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="107"/>
+      <c r="B48" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C48" s="134">
+      <c r="C48" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A48,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="135"/>
-      <c r="B49" s="133" t="str">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="107"/>
+      <c r="B49" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C49" s="134">
+      <c r="C49" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A49,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="135"/>
-      <c r="B50" s="133" t="str">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="107"/>
+      <c r="B50" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C50" s="134">
+      <c r="C50" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A50,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="135"/>
-      <c r="B51" s="133" t="str">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="107"/>
+      <c r="B51" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C51" s="134">
+      <c r="C51" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A51,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="135"/>
-      <c r="B52" s="133" t="str">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="107"/>
+      <c r="B52" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A52,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="135"/>
-      <c r="B53" s="133" t="str">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="107"/>
+      <c r="B53" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C53" s="134">
+      <c r="C53" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A53,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="135"/>
-      <c r="B54" s="133" t="str">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="107"/>
+      <c r="B54" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C54" s="134">
+      <c r="C54" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A54,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="135"/>
-      <c r="B55" s="133" t="str">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="107"/>
+      <c r="B55" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C55" s="134">
+      <c r="C55" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A55,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="135"/>
-      <c r="B56" s="133" t="str">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="107"/>
+      <c r="B56" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C56" s="134">
+      <c r="C56" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A56,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="135"/>
-      <c r="B57" s="133" t="str">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="107"/>
+      <c r="B57" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C57" s="134">
+      <c r="C57" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A57,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="135"/>
-      <c r="B58" s="133" t="str">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="107"/>
+      <c r="B58" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C58" s="134">
+      <c r="C58" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A58,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="135"/>
-      <c r="B59" s="133" t="str">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="107"/>
+      <c r="B59" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C59" s="134">
+      <c r="C59" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A59,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="135"/>
-      <c r="B60" s="133" t="str">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="107"/>
+      <c r="B60" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C60" s="134">
+      <c r="C60" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A60,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="135"/>
-      <c r="B61" s="133" t="str">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="107"/>
+      <c r="B61" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C61" s="134">
+      <c r="C61" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A61,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="135"/>
-      <c r="B62" s="133" t="str">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="107"/>
+      <c r="B62" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C62" s="134">
+      <c r="C62" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A62,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="135"/>
-      <c r="B63" s="133" t="str">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="107"/>
+      <c r="B63" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C63" s="134">
+      <c r="C63" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A63,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="135"/>
-      <c r="B64" s="133" t="str">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="107"/>
+      <c r="B64" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C64" s="134">
+      <c r="C64" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A64,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="135"/>
-      <c r="B65" s="133" t="str">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="107"/>
+      <c r="B65" s="105" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C65" s="134">
+      <c r="C65" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A65,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="135"/>
-      <c r="B66" s="133" t="str">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="107"/>
+      <c r="B66" s="105" t="str">
         <f t="shared" ref="B66:B114" si="1">IF(C66&gt;0,C66,"")</f>
         <v/>
       </c>
-      <c r="C66" s="134">
+      <c r="C66" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A66,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="135"/>
-      <c r="B67" s="133" t="str">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="107"/>
+      <c r="B67" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C67" s="134">
+      <c r="C67" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A67,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="135"/>
-      <c r="B68" s="133" t="str">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="107"/>
+      <c r="B68" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C68" s="134">
+      <c r="C68" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A68,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="135"/>
-      <c r="B69" s="133" t="str">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="107"/>
+      <c r="B69" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C69" s="134">
+      <c r="C69" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A69,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="135"/>
-      <c r="B70" s="133" t="str">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="107"/>
+      <c r="B70" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C70" s="134">
+      <c r="C70" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A70,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="135"/>
-      <c r="B71" s="133" t="str">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="107"/>
+      <c r="B71" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C71" s="134">
+      <c r="C71" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A71,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="135"/>
-      <c r="B72" s="133" t="str">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="107"/>
+      <c r="B72" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C72" s="134">
+      <c r="C72" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A72,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="135"/>
-      <c r="B73" s="133" t="str">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="107"/>
+      <c r="B73" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C73" s="134">
+      <c r="C73" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A73,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="135"/>
-      <c r="B74" s="133" t="str">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="107"/>
+      <c r="B74" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C74" s="134">
+      <c r="C74" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A74,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="135"/>
-      <c r="B75" s="133" t="str">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="107"/>
+      <c r="B75" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C75" s="134">
+      <c r="C75" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A75,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="135"/>
-      <c r="B76" s="133" t="str">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="107"/>
+      <c r="B76" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C76" s="134">
+      <c r="C76" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A76,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="135"/>
-      <c r="B77" s="133" t="str">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="107"/>
+      <c r="B77" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C77" s="134">
+      <c r="C77" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A77,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="135"/>
-      <c r="B78" s="133" t="str">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="107"/>
+      <c r="B78" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C78" s="134">
+      <c r="C78" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A78,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="135"/>
-      <c r="B79" s="133" t="str">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="107"/>
+      <c r="B79" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C79" s="134">
+      <c r="C79" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A79,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="135"/>
-      <c r="B80" s="133" t="str">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="107"/>
+      <c r="B80" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C80" s="134">
+      <c r="C80" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A80,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="135"/>
-      <c r="B81" s="133" t="str">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="107"/>
+      <c r="B81" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C81" s="134">
+      <c r="C81" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A81,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="135"/>
-      <c r="B82" s="133" t="str">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="107"/>
+      <c r="B82" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C82" s="134">
+      <c r="C82" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A82,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="135"/>
-      <c r="B83" s="133" t="str">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="107"/>
+      <c r="B83" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C83" s="134">
+      <c r="C83" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A83,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="135"/>
-      <c r="B84" s="133" t="str">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="107"/>
+      <c r="B84" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C84" s="134">
+      <c r="C84" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A84,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="135"/>
-      <c r="B85" s="133" t="str">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="107"/>
+      <c r="B85" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C85" s="134">
+      <c r="C85" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A85,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="135"/>
-      <c r="B86" s="133" t="str">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="107"/>
+      <c r="B86" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C86" s="134">
+      <c r="C86" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A86,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="135"/>
-      <c r="B87" s="133" t="str">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="107"/>
+      <c r="B87" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C87" s="134">
+      <c r="C87" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A87,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="135"/>
-      <c r="B88" s="133" t="str">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="107"/>
+      <c r="B88" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C88" s="134">
+      <c r="C88" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A88,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="135"/>
-      <c r="B89" s="133" t="str">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="107"/>
+      <c r="B89" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C89" s="134">
+      <c r="C89" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A89,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="135"/>
-      <c r="B90" s="133" t="str">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="107"/>
+      <c r="B90" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C90" s="134">
+      <c r="C90" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A90,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="135"/>
-      <c r="B91" s="133" t="str">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="107"/>
+      <c r="B91" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C91" s="134">
+      <c r="C91" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A91,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="135"/>
-      <c r="B92" s="133" t="str">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="107"/>
+      <c r="B92" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C92" s="134">
+      <c r="C92" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A92,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="135"/>
-      <c r="B93" s="133" t="str">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="107"/>
+      <c r="B93" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C93" s="134">
+      <c r="C93" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A93,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="135"/>
-      <c r="B94" s="133" t="str">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="107"/>
+      <c r="B94" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C94" s="134">
+      <c r="C94" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A94,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="135"/>
-      <c r="B95" s="133" t="str">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="107"/>
+      <c r="B95" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C95" s="134">
+      <c r="C95" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A95,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="135"/>
-      <c r="B96" s="133" t="str">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="107"/>
+      <c r="B96" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C96" s="134">
+      <c r="C96" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A96,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="135"/>
-      <c r="B97" s="133" t="str">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="107"/>
+      <c r="B97" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C97" s="134">
+      <c r="C97" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A97,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="135"/>
-      <c r="B98" s="133" t="str">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="107"/>
+      <c r="B98" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C98" s="134">
+      <c r="C98" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A98,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="135"/>
-      <c r="B99" s="133" t="str">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="107"/>
+      <c r="B99" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C99" s="134">
+      <c r="C99" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A99,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="135"/>
-      <c r="B100" s="133" t="str">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="107"/>
+      <c r="B100" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C100" s="134">
+      <c r="C100" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A100,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="135"/>
-      <c r="B101" s="133" t="str">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="107"/>
+      <c r="B101" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C101" s="134">
+      <c r="C101" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A101,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="135"/>
-      <c r="B102" s="133" t="str">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="107"/>
+      <c r="B102" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C102" s="134">
+      <c r="C102" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A102,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="135"/>
-      <c r="B103" s="133" t="str">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="107"/>
+      <c r="B103" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C103" s="134">
+      <c r="C103" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A103,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="135"/>
-      <c r="B104" s="133" t="str">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="107"/>
+      <c r="B104" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C104" s="134">
+      <c r="C104" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A104,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="135"/>
-      <c r="B105" s="133" t="str">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="107"/>
+      <c r="B105" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C105" s="134">
+      <c r="C105" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A105,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="135"/>
-      <c r="B106" s="133" t="str">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="107"/>
+      <c r="B106" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C106" s="134">
+      <c r="C106" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A106,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="135"/>
-      <c r="B107" s="133" t="str">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="107"/>
+      <c r="B107" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C107" s="134">
+      <c r="C107" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A107,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="135"/>
-      <c r="B108" s="133" t="str">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="107"/>
+      <c r="B108" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C108" s="134">
+      <c r="C108" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A108,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="135"/>
-      <c r="B109" s="133" t="str">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="107"/>
+      <c r="B109" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C109" s="134">
+      <c r="C109" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A109,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="135"/>
-      <c r="B110" s="133" t="str">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="107"/>
+      <c r="B110" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C110" s="134">
+      <c r="C110" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A110,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="135"/>
-      <c r="B111" s="133" t="str">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="107"/>
+      <c r="B111" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C111" s="134">
+      <c r="C111" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A111,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="135"/>
-      <c r="B112" s="133" t="str">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="107"/>
+      <c r="B112" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C112" s="134">
+      <c r="C112" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A112,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="135"/>
-      <c r="B113" s="133" t="str">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="107"/>
+      <c r="B113" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C113" s="134">
+      <c r="C113" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A113,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="135"/>
-      <c r="B114" s="133" t="str">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="107"/>
+      <c r="B114" s="105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="C114" s="134">
+      <c r="C114" s="106">
         <f>SUMIF(Journal[date],SommeParJours!A114,Journal[Temps])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="135"/>
-      <c r="B115" s="135"/>
-      <c r="C115" s="134"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="135"/>
-      <c r="B116" s="135"/>
-      <c r="C116" s="134"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="135"/>
-      <c r="B117" s="135"/>
-      <c r="C117" s="134"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="135"/>
-      <c r="B118" s="135"/>
-      <c r="C118" s="134"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="135"/>
-      <c r="B119" s="135"/>
-      <c r="C119" s="134"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="135"/>
-      <c r="B120" s="135"/>
-      <c r="C120" s="134"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="135"/>
-      <c r="B121" s="135"/>
-      <c r="C121" s="134"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="135"/>
-      <c r="B122" s="135"/>
-      <c r="C122" s="134"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="135"/>
-      <c r="B123" s="135"/>
-      <c r="C123" s="134"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="135"/>
-      <c r="B124" s="135"/>
-      <c r="C124" s="134"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="135"/>
-      <c r="B125" s="135"/>
-      <c r="C125" s="134"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="135"/>
-      <c r="B126" s="135"/>
-      <c r="C126" s="134"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="135"/>
-      <c r="B127" s="135"/>
-      <c r="C127" s="134"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="135"/>
-      <c r="B128" s="135"/>
-      <c r="C128" s="134"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="135"/>
-      <c r="B129" s="135"/>
-      <c r="C129" s="134"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="135"/>
-      <c r="B130" s="135"/>
-      <c r="C130" s="134"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="135"/>
-      <c r="B131" s="135"/>
-      <c r="C131" s="134"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="135"/>
-      <c r="B132" s="135"/>
-      <c r="C132" s="134"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="135"/>
-      <c r="B133" s="135"/>
-      <c r="C133" s="134"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="135"/>
-      <c r="B134" s="135"/>
-      <c r="C134" s="134"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="135"/>
-      <c r="B135" s="135"/>
-      <c r="C135" s="134"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="135"/>
-      <c r="B136" s="135"/>
-      <c r="C136" s="134"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="135"/>
-      <c r="B137" s="135"/>
-      <c r="C137" s="134"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="135"/>
-      <c r="B138" s="135"/>
-      <c r="C138" s="134"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="135"/>
-      <c r="B139" s="135"/>
-      <c r="C139" s="134"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="135"/>
-      <c r="B140" s="135"/>
-      <c r="C140" s="134"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="135"/>
-      <c r="B141" s="135"/>
-      <c r="C141" s="134"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="135"/>
-      <c r="B142" s="135"/>
-      <c r="C142" s="134"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="135"/>
-      <c r="B143" s="135"/>
-      <c r="C143" s="134"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="135"/>
-      <c r="B144" s="135"/>
-      <c r="C144" s="134"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="135"/>
-      <c r="B145" s="135"/>
-      <c r="C145" s="134"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="135"/>
-      <c r="B146" s="135"/>
-      <c r="C146" s="134"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="135"/>
-      <c r="B147" s="135"/>
-      <c r="C147" s="134"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="135"/>
-      <c r="B148" s="135"/>
-      <c r="C148" s="134"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="135"/>
-      <c r="B149" s="135"/>
-      <c r="C149" s="134"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="135"/>
-      <c r="B150" s="135"/>
-      <c r="C150" s="134"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="135"/>
-      <c r="B151" s="135"/>
-      <c r="C151" s="134"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="135"/>
-      <c r="B152" s="135"/>
-      <c r="C152" s="134"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="135"/>
-      <c r="B153" s="135"/>
-      <c r="C153" s="134"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="135"/>
-      <c r="B154" s="135"/>
-      <c r="C154" s="134"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="135"/>
-      <c r="B155" s="135"/>
-      <c r="C155" s="134"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="135"/>
-      <c r="B156" s="135"/>
-      <c r="C156" s="134"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="135"/>
-      <c r="B157" s="135"/>
-      <c r="C157" s="134"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="135"/>
-      <c r="B158" s="135"/>
-      <c r="C158" s="134"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="135"/>
-      <c r="B159" s="135"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="135"/>
-      <c r="B160" s="135"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="135"/>
-      <c r="B161" s="135"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="135"/>
-      <c r="B162" s="135"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="135"/>
-      <c r="B163" s="135"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="135"/>
-      <c r="B164" s="135"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="135"/>
-      <c r="B165" s="135"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="135"/>
-      <c r="B166" s="135"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="135"/>
-      <c r="B167" s="135"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="135"/>
-      <c r="B168" s="135"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="135"/>
-      <c r="B169" s="135"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="135"/>
-      <c r="B170" s="135"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="135"/>
-      <c r="B171" s="135"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="135"/>
-      <c r="B172" s="135"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="135"/>
-      <c r="B173" s="135"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="135"/>
-      <c r="B174" s="135"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="135"/>
-      <c r="B175" s="135"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="135"/>
-      <c r="B176" s="135"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="135"/>
-      <c r="B177" s="135"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="135"/>
-      <c r="B178" s="135"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="135"/>
-      <c r="B179" s="135"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="135"/>
-      <c r="B180" s="135"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="135"/>
-      <c r="B181" s="135"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="135"/>
-      <c r="B182" s="135"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="135"/>
-      <c r="B183" s="135"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="135"/>
-      <c r="B184" s="135"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="135"/>
-      <c r="B185" s="135"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="135"/>
-      <c r="B186" s="135"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="135"/>
-      <c r="B187" s="135"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="135"/>
-      <c r="B188" s="135"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="135"/>
-      <c r="B189" s="135"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="135"/>
-      <c r="B190" s="135"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="135"/>
-      <c r="B191" s="135"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="135"/>
-      <c r="B192" s="135"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="135"/>
-      <c r="B193" s="135"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="135"/>
-      <c r="B194" s="135"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="135"/>
-      <c r="B195" s="135"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="135"/>
-      <c r="B196" s="135"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="135"/>
-      <c r="B197" s="135"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="135"/>
-      <c r="B198" s="135"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="135"/>
-      <c r="B199" s="135"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="135"/>
-      <c r="B200" s="135"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="135"/>
-      <c r="B201" s="135"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="135"/>
-      <c r="B202" s="135"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="135"/>
-      <c r="B203" s="135"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="135"/>
-      <c r="B204" s="135"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="135"/>
-      <c r="B205" s="135"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="135"/>
-      <c r="B206" s="135"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="135"/>
-      <c r="B207" s="135"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="135"/>
-      <c r="B208" s="135"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="135"/>
-      <c r="B209" s="135"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="135"/>
-      <c r="B210" s="135"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="135"/>
-      <c r="B211" s="135"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="135"/>
-      <c r="B212" s="135"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="135"/>
-      <c r="B213" s="135"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="135"/>
-      <c r="B214" s="135"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="135"/>
-      <c r="B215" s="135"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="135"/>
-      <c r="B216" s="135"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="135"/>
-      <c r="B217" s="135"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="135"/>
-      <c r="B218" s="135"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="135"/>
-      <c r="B219" s="135"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="135"/>
-      <c r="B220" s="135"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="135"/>
-      <c r="B221" s="135"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="135"/>
-      <c r="B222" s="135"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="135"/>
-      <c r="B223" s="135"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="135"/>
-      <c r="B224" s="135"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="135"/>
-      <c r="B225" s="135"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="135"/>
-      <c r="B226" s="135"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="135"/>
-      <c r="B227" s="135"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="135"/>
-      <c r="B228" s="135"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="135"/>
-      <c r="B229" s="135"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="135"/>
-      <c r="B230" s="135"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="135"/>
-      <c r="B231" s="135"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="135"/>
-      <c r="B232" s="135"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="135"/>
-      <c r="B233" s="135"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="135"/>
-      <c r="B234" s="135"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="135"/>
-      <c r="B235" s="135"/>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="107"/>
+      <c r="B115" s="107"/>
+      <c r="C115" s="106"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="107"/>
+      <c r="B116" s="107"/>
+      <c r="C116" s="106"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="107"/>
+      <c r="B117" s="107"/>
+      <c r="C117" s="106"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="107"/>
+      <c r="B118" s="107"/>
+      <c r="C118" s="106"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="107"/>
+      <c r="B119" s="107"/>
+      <c r="C119" s="106"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="107"/>
+      <c r="B120" s="107"/>
+      <c r="C120" s="106"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="107"/>
+      <c r="B121" s="107"/>
+      <c r="C121" s="106"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="107"/>
+      <c r="B122" s="107"/>
+      <c r="C122" s="106"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="107"/>
+      <c r="B123" s="107"/>
+      <c r="C123" s="106"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="107"/>
+      <c r="B124" s="107"/>
+      <c r="C124" s="106"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="107"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="106"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="107"/>
+      <c r="B126" s="107"/>
+      <c r="C126" s="106"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="107"/>
+      <c r="B127" s="107"/>
+      <c r="C127" s="106"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="107"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="106"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="107"/>
+      <c r="B129" s="107"/>
+      <c r="C129" s="106"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="107"/>
+      <c r="B130" s="107"/>
+      <c r="C130" s="106"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="107"/>
+      <c r="B131" s="107"/>
+      <c r="C131" s="106"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="107"/>
+      <c r="B132" s="107"/>
+      <c r="C132" s="106"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="107"/>
+      <c r="B133" s="107"/>
+      <c r="C133" s="106"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="107"/>
+      <c r="B134" s="107"/>
+      <c r="C134" s="106"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="107"/>
+      <c r="B135" s="107"/>
+      <c r="C135" s="106"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="107"/>
+      <c r="B136" s="107"/>
+      <c r="C136" s="106"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="107"/>
+      <c r="B137" s="107"/>
+      <c r="C137" s="106"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="107"/>
+      <c r="B138" s="107"/>
+      <c r="C138" s="106"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="107"/>
+      <c r="B139" s="107"/>
+      <c r="C139" s="106"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="107"/>
+      <c r="B140" s="107"/>
+      <c r="C140" s="106"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="107"/>
+      <c r="B141" s="107"/>
+      <c r="C141" s="106"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="107"/>
+      <c r="B142" s="107"/>
+      <c r="C142" s="106"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="107"/>
+      <c r="B143" s="107"/>
+      <c r="C143" s="106"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="107"/>
+      <c r="B144" s="107"/>
+      <c r="C144" s="106"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="107"/>
+      <c r="B145" s="107"/>
+      <c r="C145" s="106"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="107"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="106"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="107"/>
+      <c r="B147" s="107"/>
+      <c r="C147" s="106"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="107"/>
+      <c r="B148" s="107"/>
+      <c r="C148" s="106"/>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="107"/>
+      <c r="B149" s="107"/>
+      <c r="C149" s="106"/>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="107"/>
+      <c r="B150" s="107"/>
+      <c r="C150" s="106"/>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="107"/>
+      <c r="B151" s="107"/>
+      <c r="C151" s="106"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="107"/>
+      <c r="B152" s="107"/>
+      <c r="C152" s="106"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="107"/>
+      <c r="B153" s="107"/>
+      <c r="C153" s="106"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="107"/>
+      <c r="B154" s="107"/>
+      <c r="C154" s="106"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="107"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="106"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="107"/>
+      <c r="B156" s="107"/>
+      <c r="C156" s="106"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="107"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="106"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="107"/>
+      <c r="B158" s="107"/>
+      <c r="C158" s="106"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="107"/>
+      <c r="B159" s="107"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="107"/>
+      <c r="B160" s="107"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="107"/>
+      <c r="B161" s="107"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="107"/>
+      <c r="B162" s="107"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="107"/>
+      <c r="B163" s="107"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="107"/>
+      <c r="B164" s="107"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="107"/>
+      <c r="B165" s="107"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="107"/>
+      <c r="B166" s="107"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="107"/>
+      <c r="B167" s="107"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="107"/>
+      <c r="B168" s="107"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="107"/>
+      <c r="B169" s="107"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="107"/>
+      <c r="B170" s="107"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="107"/>
+      <c r="B171" s="107"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="107"/>
+      <c r="B172" s="107"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="107"/>
+      <c r="B173" s="107"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="107"/>
+      <c r="B174" s="107"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="107"/>
+      <c r="B175" s="107"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="107"/>
+      <c r="B176" s="107"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="107"/>
+      <c r="B177" s="107"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="107"/>
+      <c r="B178" s="107"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="107"/>
+      <c r="B179" s="107"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="107"/>
+      <c r="B180" s="107"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="107"/>
+      <c r="B181" s="107"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="107"/>
+      <c r="B182" s="107"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="107"/>
+      <c r="B183" s="107"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="107"/>
+      <c r="B184" s="107"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="107"/>
+      <c r="B185" s="107"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="107"/>
+      <c r="B186" s="107"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="107"/>
+      <c r="B187" s="107"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="107"/>
+      <c r="B188" s="107"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="107"/>
+      <c r="B189" s="107"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="107"/>
+      <c r="B190" s="107"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="107"/>
+      <c r="B191" s="107"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="107"/>
+      <c r="B192" s="107"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="107"/>
+      <c r="B193" s="107"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="107"/>
+      <c r="B194" s="107"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="107"/>
+      <c r="B195" s="107"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="107"/>
+      <c r="B196" s="107"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="107"/>
+      <c r="B197" s="107"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="107"/>
+      <c r="B198" s="107"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="107"/>
+      <c r="B199" s="107"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="107"/>
+      <c r="B200" s="107"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="107"/>
+      <c r="B201" s="107"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="107"/>
+      <c r="B202" s="107"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="107"/>
+      <c r="B203" s="107"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="107"/>
+      <c r="B204" s="107"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="107"/>
+      <c r="B205" s="107"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="107"/>
+      <c r="B206" s="107"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="107"/>
+      <c r="B207" s="107"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="107"/>
+      <c r="B208" s="107"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="107"/>
+      <c r="B209" s="107"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="107"/>
+      <c r="B210" s="107"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="107"/>
+      <c r="B211" s="107"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="107"/>
+      <c r="B212" s="107"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="107"/>
+      <c r="B213" s="107"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="107"/>
+      <c r="B214" s="107"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="107"/>
+      <c r="B215" s="107"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="107"/>
+      <c r="B216" s="107"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="107"/>
+      <c r="B217" s="107"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="107"/>
+      <c r="B218" s="107"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="107"/>
+      <c r="B219" s="107"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="107"/>
+      <c r="B220" s="107"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="107"/>
+      <c r="B221" s="107"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="107"/>
+      <c r="B222" s="107"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="107"/>
+      <c r="B223" s="107"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="107"/>
+      <c r="B224" s="107"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="107"/>
+      <c r="B225" s="107"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="107"/>
+      <c r="B226" s="107"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="107"/>
+      <c r="B227" s="107"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="107"/>
+      <c r="B228" s="107"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="107"/>
+      <c r="B229" s="107"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="107"/>
+      <c r="B230" s="107"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="107"/>
+      <c r="B231" s="107"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="107"/>
+      <c r="B232" s="107"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="107"/>
+      <c r="B233" s="107"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="107"/>
+      <c r="B234" s="107"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="107"/>
+      <c r="B235" s="107"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/HoferL-Journal&Planif-M5.xlsx
+++ b/Documentation/HoferL-Journal&Planif-M5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\ScholarLog\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DE622A-572B-42E4-952B-67F0D6ACBEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91553C8D-AADE-487A-96A4-865731F4ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5368,7 +5368,7 @@
   <dimension ref="B2:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
